--- a/Results_FINAL_20210201v4(1).xlsx
+++ b/Results_FINAL_20210201v4(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephaniewichert/Library/Mobile Documents/com~apple~CloudDocs/Techlab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e6544d2511958ff/Documents/GitHub/SustainabilityMetrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B1FB07-5925-3D46-B989-794528217B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{68B1FB07-5925-3D46-B989-794528217B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9B64A50-D7A5-4EA1-8733-98FF77992626}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="859" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="859" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8918" uniqueCount="3174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8919" uniqueCount="3175">
   <si>
     <t>Unit</t>
   </si>
@@ -9691,6 +9691,9 @@
   </si>
   <si>
     <t>Zah R, Hischier R (2007) Life cycle inventories of detergents. Ecoinvent report no 12, Swiss Centre for Life Cycle inventories, Switzerland.</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -10010,7 +10013,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11108,18 +11111,18 @@
       <selection pane="bottomRight" activeCell="M35" activeCellId="1" sqref="G10 M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="3" max="12" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="3" max="12" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C2" s="23" t="s">
         <v>1172</v>
       </c>
@@ -11151,7 +11154,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C3" s="19" t="s">
         <v>1189</v>
       </c>
@@ -11183,7 +11186,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>1172</v>
       </c>
@@ -11195,7 +11198,7 @@
         <v>Cm_Ca</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>1173</v>
       </c>
@@ -11207,7 +11210,7 @@
         <v>Am_Aa</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>1174</v>
       </c>
@@ -11223,7 +11226,7 @@
         <v>Ra_Fa</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>1175</v>
       </c>
@@ -11243,7 +11246,7 @@
         <v>Ra_Ma</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>1195</v>
       </c>
@@ -11255,7 +11258,7 @@
         <v>Ra_Pa</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>1194</v>
       </c>
@@ -11271,7 +11274,7 @@
         <v>Em_Ea</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>1179</v>
       </c>
@@ -11295,7 +11298,7 @@
         <v>Ra_Cm</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>1181</v>
       </c>
@@ -11330,7 +11333,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>1183</v>
       </c>
@@ -11380,7 +11383,7 @@
       <c r="U12" s="33"/>
       <c r="V12" s="33"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>1184</v>
       </c>
@@ -11398,7 +11401,7 @@
       <c r="U13" s="33"/>
       <c r="V13" s="33"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>1191</v>
       </c>
@@ -11436,7 +11439,7 @@
       <c r="U14" s="33"/>
       <c r="V14" s="33"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
         <v>1190</v>
       </c>
@@ -11471,14 +11474,14 @@
       <c r="U15" s="33"/>
       <c r="V15" s="33"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="R16" s="33"/>
       <c r="S16" s="33"/>
       <c r="T16" s="33"/>
       <c r="U16" s="33"/>
       <c r="V16" s="33"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1703</v>
       </c>
@@ -11493,7 +11496,7 @@
       <c r="U17" s="33"/>
       <c r="V17" s="33"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1703</v>
       </c>
@@ -11509,7 +11512,7 @@
       <c r="U18" s="33"/>
       <c r="V18" s="33"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>1703</v>
       </c>
@@ -11522,7 +11525,7 @@
       <c r="U19" s="33"/>
       <c r="V19" s="33"/>
     </row>
-    <row r="20" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>1698</v>
       </c>
@@ -11535,7 +11538,7 @@
       <c r="U20" s="33"/>
       <c r="V20" s="33"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1698</v>
       </c>
@@ -11555,7 +11558,7 @@
       <c r="U21" s="33"/>
       <c r="V21" s="33"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1698</v>
       </c>
@@ -11567,7 +11570,7 @@
       </c>
       <c r="F22" s="28"/>
     </row>
-    <row r="23" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>1709</v>
       </c>
@@ -11579,7 +11582,7 @@
       </c>
       <c r="F23" s="30"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1709</v>
       </c>
@@ -11587,7 +11590,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1709</v>
       </c>
@@ -11607,31 +11610,31 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH596"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="50"/>
-    <col min="4" max="4" width="30.5" style="54" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="50"/>
-    <col min="6" max="6" width="6.1640625" style="50" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" customWidth="1"/>
-    <col min="18" max="20" width="14.33203125" customWidth="1"/>
-    <col min="34" max="34" width="23.83203125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="50"/>
+    <col min="4" max="4" width="30.453125" style="54" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="50"/>
+    <col min="6" max="6" width="6.1796875" style="50" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" customWidth="1"/>
+    <col min="18" max="20" width="14.36328125" customWidth="1"/>
+    <col min="34" max="34" width="23.81640625" style="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1197</v>
       </c>
@@ -11722,12 +11725,14 @@
       <c r="AF1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AG1" s="3"/>
+      <c r="AG1" s="3" t="s">
+        <v>3174</v>
+      </c>
       <c r="AH1" s="58" t="s">
         <v>2344</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1198</v>
       </c>
@@ -11829,7 +11834,7 @@
       </c>
       <c r="AH2" s="55"/>
     </row>
-    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1199</v>
       </c>
@@ -11931,7 +11936,7 @@
       </c>
       <c r="AH3" s="55"/>
     </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1200</v>
       </c>
@@ -12033,7 +12038,7 @@
       </c>
       <c r="AH4" s="55"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>1201</v>
       </c>
@@ -12135,7 +12140,7 @@
       </c>
       <c r="AH5" s="55"/>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>1202</v>
       </c>
@@ -12237,7 +12242,7 @@
       </c>
       <c r="AH6" s="55"/>
     </row>
-    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>1203</v>
       </c>
@@ -12339,7 +12344,7 @@
       </c>
       <c r="AH7" s="55"/>
     </row>
-    <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>1204</v>
       </c>
@@ -12441,7 +12446,7 @@
       </c>
       <c r="AH8" s="55"/>
     </row>
-    <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>1205</v>
       </c>
@@ -12543,7 +12548,7 @@
       </c>
       <c r="AH9" s="55"/>
     </row>
-    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>1206</v>
       </c>
@@ -12645,7 +12650,7 @@
       </c>
       <c r="AH10" s="55"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>1207</v>
       </c>
@@ -12747,7 +12752,7 @@
       </c>
       <c r="AH11" s="55"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>1208</v>
       </c>
@@ -12849,7 +12854,7 @@
       </c>
       <c r="AH12" s="55"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>1209</v>
       </c>
@@ -12951,7 +12956,7 @@
       </c>
       <c r="AH13" s="55"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>1210</v>
       </c>
@@ -13053,7 +13058,7 @@
       </c>
       <c r="AH14" s="55"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>1211</v>
       </c>
@@ -13155,7 +13160,7 @@
       </c>
       <c r="AH15" s="55"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>1212</v>
       </c>
@@ -13257,7 +13262,7 @@
       </c>
       <c r="AH16" s="55"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>1213</v>
       </c>
@@ -13359,7 +13364,7 @@
       </c>
       <c r="AH17" s="55"/>
     </row>
-    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>1214</v>
       </c>
@@ -13461,7 +13466,7 @@
       </c>
       <c r="AH18" s="55"/>
     </row>
-    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>1215</v>
       </c>
@@ -13563,7 +13568,7 @@
       </c>
       <c r="AH19" s="55"/>
     </row>
-    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>1216</v>
       </c>
@@ -13665,7 +13670,7 @@
       </c>
       <c r="AH20" s="55"/>
     </row>
-    <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>1217</v>
       </c>
@@ -13767,7 +13772,7 @@
       </c>
       <c r="AH21" s="55"/>
     </row>
-    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>1218</v>
       </c>
@@ -13869,7 +13874,7 @@
       </c>
       <c r="AH22" s="55"/>
     </row>
-    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>1219</v>
       </c>
@@ -13971,7 +13976,7 @@
       </c>
       <c r="AH23" s="55"/>
     </row>
-    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>1220</v>
       </c>
@@ -14073,7 +14078,7 @@
       </c>
       <c r="AH24" s="55"/>
     </row>
-    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>1221</v>
       </c>
@@ -14175,7 +14180,7 @@
       </c>
       <c r="AH25" s="55"/>
     </row>
-    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>1222</v>
       </c>
@@ -14277,7 +14282,7 @@
       </c>
       <c r="AH26" s="55"/>
     </row>
-    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>1223</v>
       </c>
@@ -14379,7 +14384,7 @@
       </c>
       <c r="AH27" s="55"/>
     </row>
-    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>1224</v>
       </c>
@@ -14481,7 +14486,7 @@
       </c>
       <c r="AH28" s="55"/>
     </row>
-    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>1225</v>
       </c>
@@ -14583,7 +14588,7 @@
       </c>
       <c r="AH29" s="55"/>
     </row>
-    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>1226</v>
       </c>
@@ -14685,7 +14690,7 @@
       </c>
       <c r="AH30" s="55"/>
     </row>
-    <row r="31" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>1227</v>
       </c>
@@ -14787,7 +14792,7 @@
       </c>
       <c r="AH31" s="55"/>
     </row>
-    <row r="32" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>1228</v>
       </c>
@@ -14889,7 +14894,7 @@
       </c>
       <c r="AH32" s="55"/>
     </row>
-    <row r="33" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>1229</v>
       </c>
@@ -14991,7 +14996,7 @@
       </c>
       <c r="AH33" s="55"/>
     </row>
-    <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>1230</v>
       </c>
@@ -15093,7 +15098,7 @@
       </c>
       <c r="AH34" s="55"/>
     </row>
-    <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>1231</v>
       </c>
@@ -15195,7 +15200,7 @@
       </c>
       <c r="AH35" s="55"/>
     </row>
-    <row r="36" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>1232</v>
       </c>
@@ -15297,7 +15302,7 @@
       </c>
       <c r="AH36" s="55"/>
     </row>
-    <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>1233</v>
       </c>
@@ -15399,7 +15404,7 @@
       </c>
       <c r="AH37" s="55"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>1234</v>
       </c>
@@ -15500,7 +15505,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>1235</v>
       </c>
@@ -15601,7 +15606,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>1236</v>
       </c>
@@ -15703,7 +15708,7 @@
       </c>
       <c r="AH40" s="55"/>
     </row>
-    <row r="41" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>1237</v>
       </c>
@@ -15805,7 +15810,7 @@
       </c>
       <c r="AH41" s="55"/>
     </row>
-    <row r="42" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>1238</v>
       </c>
@@ -15907,7 +15912,7 @@
       </c>
       <c r="AH42" s="55"/>
     </row>
-    <row r="43" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>1239</v>
       </c>
@@ -16009,7 +16014,7 @@
       </c>
       <c r="AH43" s="55"/>
     </row>
-    <row r="44" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>1240</v>
       </c>
@@ -16110,7 +16115,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>1241</v>
       </c>
@@ -16212,7 +16217,7 @@
       </c>
       <c r="AH45" s="55"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>1242</v>
       </c>
@@ -16314,7 +16319,7 @@
       </c>
       <c r="AH46" s="55"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>1243</v>
       </c>
@@ -16416,7 +16421,7 @@
       </c>
       <c r="AH47" s="55"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>1244</v>
       </c>
@@ -16518,7 +16523,7 @@
       </c>
       <c r="AH48" s="55"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>1245</v>
       </c>
@@ -16620,7 +16625,7 @@
       </c>
       <c r="AH49" s="55"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>1246</v>
       </c>
@@ -16722,7 +16727,7 @@
       </c>
       <c r="AH50" s="55"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>1247</v>
       </c>
@@ -16824,7 +16829,7 @@
       </c>
       <c r="AH51" s="55"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>1248</v>
       </c>
@@ -16926,7 +16931,7 @@
       </c>
       <c r="AH52" s="55"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>1249</v>
       </c>
@@ -17028,7 +17033,7 @@
       </c>
       <c r="AH53" s="55"/>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>1250</v>
       </c>
@@ -17130,7 +17135,7 @@
       </c>
       <c r="AH54" s="55"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>1251</v>
       </c>
@@ -17232,7 +17237,7 @@
       </c>
       <c r="AH55" s="55"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>1252</v>
       </c>
@@ -17334,7 +17339,7 @@
       </c>
       <c r="AH56" s="55"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>1253</v>
       </c>
@@ -17436,7 +17441,7 @@
       </c>
       <c r="AH57" s="55"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>1254</v>
       </c>
@@ -17538,7 +17543,7 @@
       </c>
       <c r="AH58" s="55"/>
     </row>
-    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>1255</v>
       </c>
@@ -17640,7 +17645,7 @@
       </c>
       <c r="AH59" s="55"/>
     </row>
-    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>1256</v>
       </c>
@@ -17742,7 +17747,7 @@
       </c>
       <c r="AH60" s="55"/>
     </row>
-    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>1257</v>
       </c>
@@ -17844,7 +17849,7 @@
       </c>
       <c r="AH61" s="55"/>
     </row>
-    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>1258</v>
       </c>
@@ -17946,7 +17951,7 @@
       </c>
       <c r="AH62" s="55"/>
     </row>
-    <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>1259</v>
       </c>
@@ -18048,7 +18053,7 @@
       </c>
       <c r="AH63" s="55"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>1260</v>
       </c>
@@ -18150,7 +18155,7 @@
       </c>
       <c r="AH64" s="55"/>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>1261</v>
       </c>
@@ -18252,7 +18257,7 @@
       </c>
       <c r="AH65" s="55"/>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>1262</v>
       </c>
@@ -18354,7 +18359,7 @@
       </c>
       <c r="AH66" s="55"/>
     </row>
-    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>1263</v>
       </c>
@@ -18456,7 +18461,7 @@
       </c>
       <c r="AH67" s="55"/>
     </row>
-    <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>1264</v>
       </c>
@@ -18558,7 +18563,7 @@
       </c>
       <c r="AH68" s="55"/>
     </row>
-    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>1265</v>
       </c>
@@ -18656,7 +18661,7 @@
       </c>
       <c r="AH69" s="55"/>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>1266</v>
       </c>
@@ -18757,7 +18762,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>1267</v>
       </c>
@@ -18858,7 +18863,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>1268</v>
       </c>
@@ -18960,7 +18965,7 @@
       </c>
       <c r="AH72" s="55"/>
     </row>
-    <row r="73" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>1269</v>
       </c>
@@ -19062,7 +19067,7 @@
       </c>
       <c r="AH73" s="55"/>
     </row>
-    <row r="74" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>1270</v>
       </c>
@@ -19164,7 +19169,7 @@
       </c>
       <c r="AH74" s="55"/>
     </row>
-    <row r="75" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>1271</v>
       </c>
@@ -19266,7 +19271,7 @@
       </c>
       <c r="AH75" s="55"/>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>1272</v>
       </c>
@@ -19368,7 +19373,7 @@
       </c>
       <c r="AH76" s="55"/>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>1273</v>
       </c>
@@ -19469,7 +19474,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>1274</v>
       </c>
@@ -19570,7 +19575,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>1275</v>
       </c>
@@ -19672,7 +19677,7 @@
       </c>
       <c r="AH79" s="55"/>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>1276</v>
       </c>
@@ -19774,7 +19779,7 @@
       </c>
       <c r="AH80" s="55"/>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>1277</v>
       </c>
@@ -19876,7 +19881,7 @@
       </c>
       <c r="AH81" s="55"/>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>1278</v>
       </c>
@@ -19978,7 +19983,7 @@
       </c>
       <c r="AH82" s="55"/>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>1279</v>
       </c>
@@ -20080,7 +20085,7 @@
       </c>
       <c r="AH83" s="55"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>1280</v>
       </c>
@@ -20182,7 +20187,7 @@
       </c>
       <c r="AH84" s="55"/>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>1281</v>
       </c>
@@ -20283,7 +20288,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>1282</v>
       </c>
@@ -20384,7 +20389,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>1283</v>
       </c>
@@ -20485,7 +20490,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>1284</v>
       </c>
@@ -20587,7 +20592,7 @@
       </c>
       <c r="AH88" s="55"/>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>1285</v>
       </c>
@@ -20688,7 +20693,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>1286</v>
       </c>
@@ -20790,7 +20795,7 @@
       </c>
       <c r="AH90" s="55"/>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>1287</v>
       </c>
@@ -20891,7 +20896,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>1288</v>
       </c>
@@ -20992,7 +20997,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>1289</v>
       </c>
@@ -21093,7 +21098,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>1290</v>
       </c>
@@ -21194,7 +21199,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>1291</v>
       </c>
@@ -21296,7 +21301,7 @@
       </c>
       <c r="AH95" s="55"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>1292</v>
       </c>
@@ -21397,7 +21402,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>1293</v>
       </c>
@@ -21498,7 +21503,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>1294</v>
       </c>
@@ -21599,7 +21604,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>1295</v>
       </c>
@@ -21701,7 +21706,7 @@
       </c>
       <c r="AH99" s="55"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>1296</v>
       </c>
@@ -21802,7 +21807,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>1297</v>
       </c>
@@ -21904,7 +21909,7 @@
       </c>
       <c r="AH101" s="55"/>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>1298</v>
       </c>
@@ -22006,7 +22011,7 @@
       </c>
       <c r="AH102" s="55"/>
     </row>
-    <row r="103" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>1299</v>
       </c>
@@ -22108,7 +22113,7 @@
       </c>
       <c r="AH103" s="55"/>
     </row>
-    <row r="104" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>1300</v>
       </c>
@@ -22210,7 +22215,7 @@
       </c>
       <c r="AH104" s="55"/>
     </row>
-    <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>1301</v>
       </c>
@@ -22312,7 +22317,7 @@
       </c>
       <c r="AH105" s="55"/>
     </row>
-    <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>1302</v>
       </c>
@@ -22414,7 +22419,7 @@
       </c>
       <c r="AH106" s="55"/>
     </row>
-    <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>1303</v>
       </c>
@@ -22516,7 +22521,7 @@
       </c>
       <c r="AH107" s="55"/>
     </row>
-    <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>1304</v>
       </c>
@@ -22618,7 +22623,7 @@
       </c>
       <c r="AH108" s="55"/>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>1305</v>
       </c>
@@ -22719,7 +22724,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>1306</v>
       </c>
@@ -22820,7 +22825,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>1307</v>
       </c>
@@ -22921,7 +22926,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>1308</v>
       </c>
@@ -23022,7 +23027,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>1309</v>
       </c>
@@ -23123,7 +23128,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>1310</v>
       </c>
@@ -23224,7 +23229,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>1311</v>
       </c>
@@ -23325,7 +23330,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>1312</v>
       </c>
@@ -23426,7 +23431,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>1313</v>
       </c>
@@ -23527,7 +23532,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>1314</v>
       </c>
@@ -23629,7 +23634,7 @@
       </c>
       <c r="AH118" s="55"/>
     </row>
-    <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>1315</v>
       </c>
@@ -23731,7 +23736,7 @@
       </c>
       <c r="AH119" s="55"/>
     </row>
-    <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>1316</v>
       </c>
@@ -23833,7 +23838,7 @@
       </c>
       <c r="AH120" s="55"/>
     </row>
-    <row r="121" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>1317</v>
       </c>
@@ -23935,7 +23940,7 @@
       </c>
       <c r="AH121" s="55"/>
     </row>
-    <row r="122" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>1318</v>
       </c>
@@ -24037,7 +24042,7 @@
       </c>
       <c r="AH122" s="55"/>
     </row>
-    <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>1319</v>
       </c>
@@ -24139,7 +24144,7 @@
       </c>
       <c r="AH123" s="55"/>
     </row>
-    <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>1320</v>
       </c>
@@ -24241,7 +24246,7 @@
       </c>
       <c r="AH124" s="55"/>
     </row>
-    <row r="125" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>1321</v>
       </c>
@@ -24343,7 +24348,7 @@
       </c>
       <c r="AH125" s="55"/>
     </row>
-    <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>1322</v>
       </c>
@@ -24445,7 +24450,7 @@
       </c>
       <c r="AH126" s="55"/>
     </row>
-    <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>1323</v>
       </c>
@@ -24547,7 +24552,7 @@
       </c>
       <c r="AH127" s="55"/>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>1324</v>
       </c>
@@ -24648,7 +24653,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>1325</v>
       </c>
@@ -24749,7 +24754,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>1326</v>
       </c>
@@ -24850,7 +24855,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>1327</v>
       </c>
@@ -24951,7 +24956,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>1328</v>
       </c>
@@ -25053,7 +25058,7 @@
       </c>
       <c r="AH132" s="55"/>
     </row>
-    <row r="133" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>1329</v>
       </c>
@@ -25155,7 +25160,7 @@
       </c>
       <c r="AH133" s="55"/>
     </row>
-    <row r="134" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>1330</v>
       </c>
@@ -25257,7 +25262,7 @@
       </c>
       <c r="AH134" s="55"/>
     </row>
-    <row r="135" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>1331</v>
       </c>
@@ -25359,7 +25364,7 @@
       </c>
       <c r="AH135" s="55"/>
     </row>
-    <row r="136" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>1332</v>
       </c>
@@ -25461,7 +25466,7 @@
       </c>
       <c r="AH136" s="55"/>
     </row>
-    <row r="137" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>1333</v>
       </c>
@@ -25563,7 +25568,7 @@
       </c>
       <c r="AH137" s="55"/>
     </row>
-    <row r="138" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>1334</v>
       </c>
@@ -25665,7 +25670,7 @@
       </c>
       <c r="AH138" s="55"/>
     </row>
-    <row r="139" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>1335</v>
       </c>
@@ -25767,7 +25772,7 @@
       </c>
       <c r="AH139" s="55"/>
     </row>
-    <row r="140" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>1336</v>
       </c>
@@ -25869,7 +25874,7 @@
       </c>
       <c r="AH140" s="55"/>
     </row>
-    <row r="141" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>1337</v>
       </c>
@@ -25971,7 +25976,7 @@
       </c>
       <c r="AH141" s="55"/>
     </row>
-    <row r="142" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>1338</v>
       </c>
@@ -26073,7 +26078,7 @@
       </c>
       <c r="AH142" s="55"/>
     </row>
-    <row r="143" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>1339</v>
       </c>
@@ -26175,7 +26180,7 @@
       </c>
       <c r="AH143" s="55"/>
     </row>
-    <row r="144" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>1340</v>
       </c>
@@ -26277,7 +26282,7 @@
       </c>
       <c r="AH144" s="55"/>
     </row>
-    <row r="145" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>1341</v>
       </c>
@@ -26379,7 +26384,7 @@
       </c>
       <c r="AH145" s="55"/>
     </row>
-    <row r="146" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>1342</v>
       </c>
@@ -26480,7 +26485,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="147" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>1343</v>
       </c>
@@ -26582,7 +26587,7 @@
       </c>
       <c r="AH147" s="55"/>
     </row>
-    <row r="148" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>1344</v>
       </c>
@@ -26684,7 +26689,7 @@
       </c>
       <c r="AH148" s="55"/>
     </row>
-    <row r="149" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>1345</v>
       </c>
@@ -26786,7 +26791,7 @@
       </c>
       <c r="AH149" s="55"/>
     </row>
-    <row r="150" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>1346</v>
       </c>
@@ -26888,7 +26893,7 @@
       </c>
       <c r="AH150" s="55"/>
     </row>
-    <row r="151" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>1347</v>
       </c>
@@ -26990,7 +26995,7 @@
       </c>
       <c r="AH151" s="55"/>
     </row>
-    <row r="152" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>1348</v>
       </c>
@@ -27092,7 +27097,7 @@
       </c>
       <c r="AH152" s="55"/>
     </row>
-    <row r="153" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>1349</v>
       </c>
@@ -27194,7 +27199,7 @@
       </c>
       <c r="AH153" s="55"/>
     </row>
-    <row r="154" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>1350</v>
       </c>
@@ -27296,7 +27301,7 @@
       </c>
       <c r="AH154" s="55"/>
     </row>
-    <row r="155" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>1351</v>
       </c>
@@ -27398,7 +27403,7 @@
       </c>
       <c r="AH155" s="55"/>
     </row>
-    <row r="156" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>1352</v>
       </c>
@@ -27500,7 +27505,7 @@
       </c>
       <c r="AH156" s="55"/>
     </row>
-    <row r="157" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>1353</v>
       </c>
@@ -27602,7 +27607,7 @@
       </c>
       <c r="AH157" s="55"/>
     </row>
-    <row r="158" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>1354</v>
       </c>
@@ -27704,7 +27709,7 @@
       </c>
       <c r="AH158" s="55"/>
     </row>
-    <row r="159" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>1355</v>
       </c>
@@ -27806,7 +27811,7 @@
       </c>
       <c r="AH159" s="55"/>
     </row>
-    <row r="160" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>1356</v>
       </c>
@@ -27908,7 +27913,7 @@
       </c>
       <c r="AH160" s="55"/>
     </row>
-    <row r="161" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>1357</v>
       </c>
@@ -28010,7 +28015,7 @@
       </c>
       <c r="AH161" s="55"/>
     </row>
-    <row r="162" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>1358</v>
       </c>
@@ -28112,7 +28117,7 @@
       </c>
       <c r="AH162" s="55"/>
     </row>
-    <row r="163" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>1359</v>
       </c>
@@ -28214,7 +28219,7 @@
       </c>
       <c r="AH163" s="55"/>
     </row>
-    <row r="164" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>1360</v>
       </c>
@@ -28316,7 +28321,7 @@
       </c>
       <c r="AH164" s="55"/>
     </row>
-    <row r="165" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>1361</v>
       </c>
@@ -28418,7 +28423,7 @@
       </c>
       <c r="AH165" s="55"/>
     </row>
-    <row r="166" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>1362</v>
       </c>
@@ -28520,7 +28525,7 @@
       </c>
       <c r="AH166" s="55"/>
     </row>
-    <row r="167" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>1363</v>
       </c>
@@ -28622,7 +28627,7 @@
       </c>
       <c r="AH167" s="55"/>
     </row>
-    <row r="168" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>1364</v>
       </c>
@@ -28724,7 +28729,7 @@
       </c>
       <c r="AH168" s="55"/>
     </row>
-    <row r="169" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>1365</v>
       </c>
@@ -28826,7 +28831,7 @@
       </c>
       <c r="AH169" s="55"/>
     </row>
-    <row r="170" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>1366</v>
       </c>
@@ -28928,7 +28933,7 @@
       </c>
       <c r="AH170" s="55"/>
     </row>
-    <row r="171" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>1367</v>
       </c>
@@ -29030,7 +29035,7 @@
       </c>
       <c r="AH171" s="55"/>
     </row>
-    <row r="172" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>1368</v>
       </c>
@@ -29132,7 +29137,7 @@
       </c>
       <c r="AH172" s="55"/>
     </row>
-    <row r="173" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
         <v>1369</v>
       </c>
@@ -29236,7 +29241,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="174" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>1370</v>
       </c>
@@ -29340,7 +29345,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="175" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>1371</v>
       </c>
@@ -29444,7 +29449,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="176" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>1372</v>
       </c>
@@ -29548,7 +29553,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="177" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
         <v>1373</v>
       </c>
@@ -29652,7 +29657,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="178" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>1374</v>
       </c>
@@ -29754,7 +29759,7 @@
       </c>
       <c r="AH178" s="55"/>
     </row>
-    <row r="179" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
         <v>1375</v>
       </c>
@@ -29856,7 +29861,7 @@
       </c>
       <c r="AH179" s="55"/>
     </row>
-    <row r="180" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>1376</v>
       </c>
@@ -29960,7 +29965,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="181" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
         <v>1377</v>
       </c>
@@ -30064,7 +30069,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="182" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>1378</v>
       </c>
@@ -30168,7 +30173,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="183" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>1379</v>
       </c>
@@ -30270,7 +30275,7 @@
       </c>
       <c r="AH183" s="55"/>
     </row>
-    <row r="184" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>1380</v>
       </c>
@@ -30372,7 +30377,7 @@
       </c>
       <c r="AH184" s="55"/>
     </row>
-    <row r="185" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>1381</v>
       </c>
@@ -30474,7 +30479,7 @@
       </c>
       <c r="AH185" s="55"/>
     </row>
-    <row r="186" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>1382</v>
       </c>
@@ -30576,7 +30581,7 @@
       </c>
       <c r="AH186" s="55"/>
     </row>
-    <row r="187" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>1383</v>
       </c>
@@ -30678,7 +30683,7 @@
       </c>
       <c r="AH187" s="55"/>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>1384</v>
       </c>
@@ -30780,7 +30785,7 @@
       </c>
       <c r="AH188" s="55"/>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>1385</v>
       </c>
@@ -30881,7 +30886,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>1386</v>
       </c>
@@ -30982,7 +30987,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>1387</v>
       </c>
@@ -31083,7 +31088,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
         <v>1388</v>
       </c>
@@ -31184,7 +31189,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
         <v>1389</v>
       </c>
@@ -31285,7 +31290,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
         <v>1390</v>
       </c>
@@ -31386,7 +31391,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
         <v>1391</v>
       </c>
@@ -31487,7 +31492,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>1392</v>
       </c>
@@ -31589,7 +31594,7 @@
       </c>
       <c r="AH196" s="55"/>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
         <v>1393</v>
       </c>
@@ -31690,7 +31695,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>1394</v>
       </c>
@@ -31791,7 +31796,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>1395</v>
       </c>
@@ -31892,7 +31897,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>1396</v>
       </c>
@@ -31993,7 +31998,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
         <v>1397</v>
       </c>
@@ -32094,7 +32099,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="202" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>1398</v>
       </c>
@@ -32196,7 +32201,7 @@
       </c>
       <c r="AH202" s="55"/>
     </row>
-    <row r="203" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
         <v>1399</v>
       </c>
@@ -32298,7 +32303,7 @@
       </c>
       <c r="AH203" s="55"/>
     </row>
-    <row r="204" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
         <v>1400</v>
       </c>
@@ -32400,7 +32405,7 @@
       </c>
       <c r="AH204" s="55"/>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>1401</v>
       </c>
@@ -32501,7 +32506,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
         <v>1402</v>
       </c>
@@ -32602,7 +32607,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>1403</v>
       </c>
@@ -32703,7 +32708,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="208" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>1404</v>
       </c>
@@ -32805,7 +32810,7 @@
       </c>
       <c r="AH208" s="55"/>
     </row>
-    <row r="209" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="s">
         <v>1405</v>
       </c>
@@ -32907,7 +32912,7 @@
       </c>
       <c r="AH209" s="55"/>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
         <v>1406</v>
       </c>
@@ -33011,7 +33016,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
         <v>1407</v>
       </c>
@@ -33115,7 +33120,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
         <v>1408</v>
       </c>
@@ -33219,7 +33224,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="s">
         <v>1409</v>
       </c>
@@ -33323,7 +33328,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="214" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
         <v>1410</v>
       </c>
@@ -33425,7 +33430,7 @@
       </c>
       <c r="AH214" s="55"/>
     </row>
-    <row r="215" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>1411</v>
       </c>
@@ -33527,7 +33532,7 @@
       </c>
       <c r="AH215" s="55"/>
     </row>
-    <row r="216" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="5" t="s">
         <v>1412</v>
       </c>
@@ -33629,7 +33634,7 @@
       </c>
       <c r="AH216" s="55"/>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A217" s="5" t="s">
         <v>1413</v>
       </c>
@@ -33731,7 +33736,7 @@
       </c>
       <c r="AH217" s="55"/>
     </row>
-    <row r="218" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
         <v>1414</v>
       </c>
@@ -33833,7 +33838,7 @@
       </c>
       <c r="AH218" s="55"/>
     </row>
-    <row r="219" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="5" t="s">
         <v>1415</v>
       </c>
@@ -33935,7 +33940,7 @@
       </c>
       <c r="AH219" s="55"/>
     </row>
-    <row r="220" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="5" t="s">
         <v>1416</v>
       </c>
@@ -34037,7 +34042,7 @@
       </c>
       <c r="AH220" s="55"/>
     </row>
-    <row r="221" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
         <v>1417</v>
       </c>
@@ -34139,7 +34144,7 @@
       </c>
       <c r="AH221" s="55"/>
     </row>
-    <row r="222" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="5" t="s">
         <v>1418</v>
       </c>
@@ -34241,7 +34246,7 @@
       </c>
       <c r="AH222" s="55"/>
     </row>
-    <row r="223" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
         <v>1419</v>
       </c>
@@ -34343,7 +34348,7 @@
       </c>
       <c r="AH223" s="55"/>
     </row>
-    <row r="224" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
         <v>1420</v>
       </c>
@@ -34445,7 +34450,7 @@
       </c>
       <c r="AH224" s="55"/>
     </row>
-    <row r="225" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="5" t="s">
         <v>1421</v>
       </c>
@@ -34547,7 +34552,7 @@
       </c>
       <c r="AH225" s="55"/>
     </row>
-    <row r="226" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="5" t="s">
         <v>1422</v>
       </c>
@@ -34649,7 +34654,7 @@
       </c>
       <c r="AH226" s="55"/>
     </row>
-    <row r="227" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="5" t="s">
         <v>1423</v>
       </c>
@@ -34751,7 +34756,7 @@
       </c>
       <c r="AH227" s="55"/>
     </row>
-    <row r="228" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="5" t="s">
         <v>1424</v>
       </c>
@@ -34853,7 +34858,7 @@
       </c>
       <c r="AH228" s="55"/>
     </row>
-    <row r="229" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="5" t="s">
         <v>1425</v>
       </c>
@@ -34955,7 +34960,7 @@
       </c>
       <c r="AH229" s="55"/>
     </row>
-    <row r="230" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
         <v>1426</v>
       </c>
@@ -35057,7 +35062,7 @@
       </c>
       <c r="AH230" s="55"/>
     </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
         <v>1427</v>
       </c>
@@ -35159,7 +35164,7 @@
       </c>
       <c r="AH231" s="55"/>
     </row>
-    <row r="232" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A232" s="5" t="s">
         <v>1428</v>
       </c>
@@ -35260,7 +35265,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="233" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="s">
         <v>1429</v>
       </c>
@@ -35362,7 +35367,7 @@
       </c>
       <c r="AH233" s="55"/>
     </row>
-    <row r="234" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="5" t="s">
         <v>1430</v>
       </c>
@@ -35464,7 +35469,7 @@
       </c>
       <c r="AH234" s="55"/>
     </row>
-    <row r="235" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="5" t="s">
         <v>1431</v>
       </c>
@@ -35566,7 +35571,7 @@
       </c>
       <c r="AH235" s="55"/>
     </row>
-    <row r="236" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="5" t="s">
         <v>1432</v>
       </c>
@@ -35668,7 +35673,7 @@
       </c>
       <c r="AH236" s="55"/>
     </row>
-    <row r="237" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="5" t="s">
         <v>1433</v>
       </c>
@@ -35770,7 +35775,7 @@
       </c>
       <c r="AH237" s="55"/>
     </row>
-    <row r="238" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
         <v>1434</v>
       </c>
@@ -35872,7 +35877,7 @@
       </c>
       <c r="AH238" s="55"/>
     </row>
-    <row r="239" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A239" s="5" t="s">
         <v>1435</v>
       </c>
@@ -35974,7 +35979,7 @@
       </c>
       <c r="AH239" s="55"/>
     </row>
-    <row r="240" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A240" s="5" t="s">
         <v>1436</v>
       </c>
@@ -36076,7 +36081,7 @@
       </c>
       <c r="AH240" s="55"/>
     </row>
-    <row r="241" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
         <v>1437</v>
       </c>
@@ -36178,7 +36183,7 @@
       </c>
       <c r="AH241" s="55"/>
     </row>
-    <row r="242" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A242" s="5" t="s">
         <v>1438</v>
       </c>
@@ -36280,7 +36285,7 @@
       </c>
       <c r="AH242" s="55"/>
     </row>
-    <row r="243" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A243" s="5" t="s">
         <v>1439</v>
       </c>
@@ -36382,7 +36387,7 @@
       </c>
       <c r="AH243" s="55"/>
     </row>
-    <row r="244" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A244" s="5" t="s">
         <v>1440</v>
       </c>
@@ -36484,7 +36489,7 @@
       </c>
       <c r="AH244" s="55"/>
     </row>
-    <row r="245" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A245" s="5" t="s">
         <v>1441</v>
       </c>
@@ -36586,7 +36591,7 @@
       </c>
       <c r="AH245" s="55"/>
     </row>
-    <row r="246" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A246" s="5" t="s">
         <v>1442</v>
       </c>
@@ -36688,7 +36693,7 @@
       </c>
       <c r="AH246" s="55"/>
     </row>
-    <row r="247" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A247" s="5" t="s">
         <v>1443</v>
       </c>
@@ -36790,7 +36795,7 @@
       </c>
       <c r="AH247" s="55"/>
     </row>
-    <row r="248" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
         <v>1444</v>
       </c>
@@ -36892,7 +36897,7 @@
       </c>
       <c r="AH248" s="55"/>
     </row>
-    <row r="249" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
         <v>1445</v>
       </c>
@@ -36994,7 +36999,7 @@
       </c>
       <c r="AH249" s="55"/>
     </row>
-    <row r="250" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="5" t="s">
         <v>1446</v>
       </c>
@@ -37096,7 +37101,7 @@
       </c>
       <c r="AH250" s="55"/>
     </row>
-    <row r="251" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A251" s="5" t="s">
         <v>1447</v>
       </c>
@@ -37198,7 +37203,7 @@
       </c>
       <c r="AH251" s="55"/>
     </row>
-    <row r="252" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="5" t="s">
         <v>1448</v>
       </c>
@@ -37300,7 +37305,7 @@
       </c>
       <c r="AH252" s="55"/>
     </row>
-    <row r="253" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="5" t="s">
         <v>1449</v>
       </c>
@@ -37402,7 +37407,7 @@
       </c>
       <c r="AH253" s="55"/>
     </row>
-    <row r="254" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="5" t="s">
         <v>1450</v>
       </c>
@@ -37504,7 +37509,7 @@
       </c>
       <c r="AH254" s="55"/>
     </row>
-    <row r="255" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="5" t="s">
         <v>1451</v>
       </c>
@@ -37606,7 +37611,7 @@
       </c>
       <c r="AH255" s="55"/>
     </row>
-    <row r="256" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A256" s="5" t="s">
         <v>1452</v>
       </c>
@@ -37708,7 +37713,7 @@
       </c>
       <c r="AH256" s="55"/>
     </row>
-    <row r="257" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="5" t="s">
         <v>1453</v>
       </c>
@@ -37810,7 +37815,7 @@
       </c>
       <c r="AH257" s="55"/>
     </row>
-    <row r="258" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="5" t="s">
         <v>1454</v>
       </c>
@@ -37912,7 +37917,7 @@
       </c>
       <c r="AH258" s="55"/>
     </row>
-    <row r="259" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="5" t="s">
         <v>1455</v>
       </c>
@@ -38014,7 +38019,7 @@
       </c>
       <c r="AH259" s="55"/>
     </row>
-    <row r="260" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="5" t="s">
         <v>1456</v>
       </c>
@@ -38116,7 +38121,7 @@
       </c>
       <c r="AH260" s="55"/>
     </row>
-    <row r="261" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="5" t="s">
         <v>1457</v>
       </c>
@@ -38218,7 +38223,7 @@
       </c>
       <c r="AH261" s="55"/>
     </row>
-    <row r="262" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="5" t="s">
         <v>1458</v>
       </c>
@@ -38320,7 +38325,7 @@
       </c>
       <c r="AH262" s="55"/>
     </row>
-    <row r="263" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="5" t="s">
         <v>1459</v>
       </c>
@@ -38422,7 +38427,7 @@
       </c>
       <c r="AH263" s="55"/>
     </row>
-    <row r="264" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="5" t="s">
         <v>1460</v>
       </c>
@@ -38524,7 +38529,7 @@
       </c>
       <c r="AH264" s="55"/>
     </row>
-    <row r="265" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="5" t="s">
         <v>1461</v>
       </c>
@@ -38626,7 +38631,7 @@
       </c>
       <c r="AH265" s="55"/>
     </row>
-    <row r="266" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="5" t="s">
         <v>1462</v>
       </c>
@@ -38728,7 +38733,7 @@
       </c>
       <c r="AH266" s="55"/>
     </row>
-    <row r="267" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="5" t="s">
         <v>1463</v>
       </c>
@@ -38830,7 +38835,7 @@
       </c>
       <c r="AH267" s="55"/>
     </row>
-    <row r="268" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="5" t="s">
         <v>1464</v>
       </c>
@@ -38932,7 +38937,7 @@
       </c>
       <c r="AH268" s="55"/>
     </row>
-    <row r="269" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="5" t="s">
         <v>1465</v>
       </c>
@@ -39034,7 +39039,7 @@
       </c>
       <c r="AH269" s="55"/>
     </row>
-    <row r="270" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="5" t="s">
         <v>1466</v>
       </c>
@@ -39136,7 +39141,7 @@
       </c>
       <c r="AH270" s="55"/>
     </row>
-    <row r="271" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A271" s="5" t="s">
         <v>1467</v>
       </c>
@@ -39238,7 +39243,7 @@
       </c>
       <c r="AH271" s="55"/>
     </row>
-    <row r="272" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A272" s="5" t="s">
         <v>1468</v>
       </c>
@@ -39340,7 +39345,7 @@
       </c>
       <c r="AH272" s="55"/>
     </row>
-    <row r="273" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A273" s="5" t="s">
         <v>1469</v>
       </c>
@@ -39441,7 +39446,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="274" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A274" s="5" t="s">
         <v>1470</v>
       </c>
@@ -39542,7 +39547,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="275" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A275" s="5" t="s">
         <v>1471</v>
       </c>
@@ -39643,7 +39648,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="276" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A276" s="5" t="s">
         <v>1472</v>
       </c>
@@ -39744,7 +39749,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="277" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A277" s="5" t="s">
         <v>1473</v>
       </c>
@@ -39845,7 +39850,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="278" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A278" s="5" t="s">
         <v>1474</v>
       </c>
@@ -39946,7 +39951,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="279" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A279" s="5" t="s">
         <v>1475</v>
       </c>
@@ -40047,7 +40052,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="280" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A280" s="5" t="s">
         <v>1476</v>
       </c>
@@ -40148,7 +40153,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="281" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="5" t="s">
         <v>1477</v>
       </c>
@@ -40250,7 +40255,7 @@
       </c>
       <c r="AH281" s="55"/>
     </row>
-    <row r="282" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="5" t="s">
         <v>1478</v>
       </c>
@@ -40354,7 +40359,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="283" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="5" t="s">
         <v>1479</v>
       </c>
@@ -40456,7 +40461,7 @@
       </c>
       <c r="AH283" s="55"/>
     </row>
-    <row r="284" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="5" t="s">
         <v>1480</v>
       </c>
@@ -40558,7 +40563,7 @@
       </c>
       <c r="AH284" s="55"/>
     </row>
-    <row r="285" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="5" t="s">
         <v>1481</v>
       </c>
@@ -40660,7 +40665,7 @@
       </c>
       <c r="AH285" s="55"/>
     </row>
-    <row r="286" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="5" t="s">
         <v>1482</v>
       </c>
@@ -40762,7 +40767,7 @@
       </c>
       <c r="AH286" s="55"/>
     </row>
-    <row r="287" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="5" t="s">
         <v>1483</v>
       </c>
@@ -40864,7 +40869,7 @@
       </c>
       <c r="AH287" s="55"/>
     </row>
-    <row r="288" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="5" t="s">
         <v>1484</v>
       </c>
@@ -40966,7 +40971,7 @@
       </c>
       <c r="AH288" s="55"/>
     </row>
-    <row r="289" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="5" t="s">
         <v>1485</v>
       </c>
@@ -41068,7 +41073,7 @@
       </c>
       <c r="AH289" s="55"/>
     </row>
-    <row r="290" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="5" t="s">
         <v>1486</v>
       </c>
@@ -41170,7 +41175,7 @@
       </c>
       <c r="AH290" s="55"/>
     </row>
-    <row r="291" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="5" t="s">
         <v>1487</v>
       </c>
@@ -41272,7 +41277,7 @@
       </c>
       <c r="AH291" s="55"/>
     </row>
-    <row r="292" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="5" t="s">
         <v>1488</v>
       </c>
@@ -41374,7 +41379,7 @@
       </c>
       <c r="AH292" s="55"/>
     </row>
-    <row r="293" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="5" t="s">
         <v>1489</v>
       </c>
@@ -41476,7 +41481,7 @@
       </c>
       <c r="AH293" s="55"/>
     </row>
-    <row r="294" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="5" t="s">
         <v>1490</v>
       </c>
@@ -41578,7 +41583,7 @@
       </c>
       <c r="AH294" s="55"/>
     </row>
-    <row r="295" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="5" t="s">
         <v>1491</v>
       </c>
@@ -41680,7 +41685,7 @@
       </c>
       <c r="AH295" s="55"/>
     </row>
-    <row r="296" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A296" s="5" t="s">
         <v>1492</v>
       </c>
@@ -41782,7 +41787,7 @@
       </c>
       <c r="AH296" s="55"/>
     </row>
-    <row r="297" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A297" s="5" t="s">
         <v>1493</v>
       </c>
@@ -41884,7 +41889,7 @@
       </c>
       <c r="AH297" s="55"/>
     </row>
-    <row r="298" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A298" s="5" t="s">
         <v>1494</v>
       </c>
@@ -41986,7 +41991,7 @@
       </c>
       <c r="AH298" s="55"/>
     </row>
-    <row r="299" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="5" t="s">
         <v>1495</v>
       </c>
@@ -42088,7 +42093,7 @@
       </c>
       <c r="AH299" s="55"/>
     </row>
-    <row r="300" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="5" t="s">
         <v>1496</v>
       </c>
@@ -42190,7 +42195,7 @@
       </c>
       <c r="AH300" s="55"/>
     </row>
-    <row r="301" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="5" t="s">
         <v>1497</v>
       </c>
@@ -42292,7 +42297,7 @@
       </c>
       <c r="AH301" s="55"/>
     </row>
-    <row r="302" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="5" t="s">
         <v>1498</v>
       </c>
@@ -42394,7 +42399,7 @@
       </c>
       <c r="AH302" s="55"/>
     </row>
-    <row r="303" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="5" t="s">
         <v>1499</v>
       </c>
@@ -42496,7 +42501,7 @@
       </c>
       <c r="AH303" s="55"/>
     </row>
-    <row r="304" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="5" t="s">
         <v>1500</v>
       </c>
@@ -42598,7 +42603,7 @@
       </c>
       <c r="AH304" s="55"/>
     </row>
-    <row r="305" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="5" t="s">
         <v>1501</v>
       </c>
@@ -42700,7 +42705,7 @@
       </c>
       <c r="AH305" s="55"/>
     </row>
-    <row r="306" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="5" t="s">
         <v>1502</v>
       </c>
@@ -42802,7 +42807,7 @@
       </c>
       <c r="AH306" s="55"/>
     </row>
-    <row r="307" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="5" t="s">
         <v>1503</v>
       </c>
@@ -42904,7 +42909,7 @@
       </c>
       <c r="AH307" s="55"/>
     </row>
-    <row r="308" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="5" t="s">
         <v>1504</v>
       </c>
@@ -43006,7 +43011,7 @@
       </c>
       <c r="AH308" s="55"/>
     </row>
-    <row r="309" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="5" t="s">
         <v>1505</v>
       </c>
@@ -43108,7 +43113,7 @@
       </c>
       <c r="AH309" s="55"/>
     </row>
-    <row r="310" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="5" t="s">
         <v>1506</v>
       </c>
@@ -43210,7 +43215,7 @@
       </c>
       <c r="AH310" s="55"/>
     </row>
-    <row r="311" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="5" t="s">
         <v>1507</v>
       </c>
@@ -43312,7 +43317,7 @@
       </c>
       <c r="AH311" s="55"/>
     </row>
-    <row r="312" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="5" t="s">
         <v>1508</v>
       </c>
@@ -43414,7 +43419,7 @@
       </c>
       <c r="AH312" s="55"/>
     </row>
-    <row r="313" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="5" t="s">
         <v>1509</v>
       </c>
@@ -43516,7 +43521,7 @@
       </c>
       <c r="AH313" s="55"/>
     </row>
-    <row r="314" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="5" t="s">
         <v>1510</v>
       </c>
@@ -43618,7 +43623,7 @@
       </c>
       <c r="AH314" s="55"/>
     </row>
-    <row r="315" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="5" t="s">
         <v>1511</v>
       </c>
@@ -43720,7 +43725,7 @@
       </c>
       <c r="AH315" s="55"/>
     </row>
-    <row r="316" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="5" t="s">
         <v>1512</v>
       </c>
@@ -43822,7 +43827,7 @@
       </c>
       <c r="AH316" s="55"/>
     </row>
-    <row r="317" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="5" t="s">
         <v>1513</v>
       </c>
@@ -43924,7 +43929,7 @@
       </c>
       <c r="AH317" s="55"/>
     </row>
-    <row r="318" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="5" t="s">
         <v>1514</v>
       </c>
@@ -44026,7 +44031,7 @@
       </c>
       <c r="AH318" s="55"/>
     </row>
-    <row r="319" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="5" t="s">
         <v>1515</v>
       </c>
@@ -44127,7 +44132,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="320" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="5" t="s">
         <v>1516</v>
       </c>
@@ -44228,7 +44233,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="321" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="5" t="s">
         <v>1517</v>
       </c>
@@ -44330,7 +44335,7 @@
       </c>
       <c r="AH321" s="55"/>
     </row>
-    <row r="322" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="5" t="s">
         <v>1518</v>
       </c>
@@ -44432,7 +44437,7 @@
       </c>
       <c r="AH322" s="55"/>
     </row>
-    <row r="323" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="5" t="s">
         <v>1519</v>
       </c>
@@ -44534,7 +44539,7 @@
       </c>
       <c r="AH323" s="55"/>
     </row>
-    <row r="324" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="5" t="s">
         <v>1520</v>
       </c>
@@ -44636,7 +44641,7 @@
       </c>
       <c r="AH324" s="55"/>
     </row>
-    <row r="325" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="5" t="s">
         <v>1521</v>
       </c>
@@ -44738,7 +44743,7 @@
       </c>
       <c r="AH325" s="55"/>
     </row>
-    <row r="326" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="5" t="s">
         <v>1522</v>
       </c>
@@ -44840,7 +44845,7 @@
       </c>
       <c r="AH326" s="55"/>
     </row>
-    <row r="327" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="5" t="s">
         <v>1523</v>
       </c>
@@ -44942,7 +44947,7 @@
       </c>
       <c r="AH327" s="55"/>
     </row>
-    <row r="328" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="5" t="s">
         <v>1524</v>
       </c>
@@ -45044,7 +45049,7 @@
       </c>
       <c r="AH328" s="55"/>
     </row>
-    <row r="329" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="5" t="s">
         <v>1525</v>
       </c>
@@ -45146,7 +45151,7 @@
       </c>
       <c r="AH329" s="55"/>
     </row>
-    <row r="330" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="5" t="s">
         <v>1526</v>
       </c>
@@ -45246,7 +45251,7 @@
       </c>
       <c r="AH330" s="55"/>
     </row>
-    <row r="331" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="5" t="s">
         <v>1527</v>
       </c>
@@ -45348,7 +45353,7 @@
       </c>
       <c r="AH331" s="55"/>
     </row>
-    <row r="332" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="5" t="s">
         <v>1528</v>
       </c>
@@ -45448,7 +45453,7 @@
       </c>
       <c r="AH332" s="55"/>
     </row>
-    <row r="333" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="5" t="s">
         <v>1529</v>
       </c>
@@ -45550,7 +45555,7 @@
       </c>
       <c r="AH333" s="55"/>
     </row>
-    <row r="334" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="5" t="s">
         <v>1530</v>
       </c>
@@ -45650,7 +45655,7 @@
       </c>
       <c r="AH334" s="55"/>
     </row>
-    <row r="335" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="5" t="s">
         <v>1531</v>
       </c>
@@ -45752,7 +45757,7 @@
       </c>
       <c r="AH335" s="55"/>
     </row>
-    <row r="336" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="5" t="s">
         <v>1532</v>
       </c>
@@ -45854,7 +45859,7 @@
       </c>
       <c r="AH336" s="55"/>
     </row>
-    <row r="337" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="5" t="s">
         <v>1533</v>
       </c>
@@ -45956,7 +45961,7 @@
       </c>
       <c r="AH337" s="55"/>
     </row>
-    <row r="338" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="5" t="s">
         <v>1534</v>
       </c>
@@ -46058,7 +46063,7 @@
       </c>
       <c r="AH338" s="55"/>
     </row>
-    <row r="339" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A339" s="5" t="s">
         <v>1535</v>
       </c>
@@ -46159,7 +46164,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="340" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A340" s="5" t="s">
         <v>1536</v>
       </c>
@@ -46260,7 +46265,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="341" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A341" s="5" t="s">
         <v>1537</v>
       </c>
@@ -46361,7 +46366,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="342" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A342" s="5" t="s">
         <v>1538</v>
       </c>
@@ -46463,7 +46468,7 @@
       </c>
       <c r="AH342" s="55"/>
     </row>
-    <row r="343" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A343" s="5" t="s">
         <v>1539</v>
       </c>
@@ -46565,7 +46570,7 @@
       </c>
       <c r="AH343" s="55"/>
     </row>
-    <row r="344" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A344" s="53" t="s">
         <v>1540</v>
       </c>
@@ -46667,7 +46672,7 @@
       </c>
       <c r="AH344" s="55"/>
     </row>
-    <row r="345" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A345" s="5" t="s">
         <v>1541</v>
       </c>
@@ -46769,7 +46774,7 @@
       </c>
       <c r="AH345" s="55"/>
     </row>
-    <row r="346" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A346" s="5" t="s">
         <v>1542</v>
       </c>
@@ -46870,7 +46875,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="347" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A347" s="5" t="s">
         <v>1543</v>
       </c>
@@ -46971,7 +46976,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="348" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="5" t="s">
         <v>1544</v>
       </c>
@@ -47073,7 +47078,7 @@
       </c>
       <c r="AH348" s="55"/>
     </row>
-    <row r="349" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="5" t="s">
         <v>1545</v>
       </c>
@@ -47174,7 +47179,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="350" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="5" t="s">
         <v>1546</v>
       </c>
@@ -47276,7 +47281,7 @@
       </c>
       <c r="AH350" s="55"/>
     </row>
-    <row r="351" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="5" t="s">
         <v>1547</v>
       </c>
@@ -47377,7 +47382,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="352" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="5" t="s">
         <v>1548</v>
       </c>
@@ -47479,7 +47484,7 @@
       </c>
       <c r="AH352" s="55"/>
     </row>
-    <row r="353" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="5" t="s">
         <v>1549</v>
       </c>
@@ -47581,7 +47586,7 @@
       </c>
       <c r="AH353" s="55"/>
     </row>
-    <row r="354" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="5" t="s">
         <v>1550</v>
       </c>
@@ -47683,7 +47688,7 @@
       </c>
       <c r="AH354" s="55"/>
     </row>
-    <row r="355" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="5" t="s">
         <v>1551</v>
       </c>
@@ -47785,7 +47790,7 @@
       </c>
       <c r="AH355" s="55"/>
     </row>
-    <row r="356" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="5" t="s">
         <v>1552</v>
       </c>
@@ -47887,7 +47892,7 @@
       </c>
       <c r="AH356" s="55"/>
     </row>
-    <row r="357" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="5" t="s">
         <v>1553</v>
       </c>
@@ -47989,7 +47994,7 @@
       </c>
       <c r="AH357" s="55"/>
     </row>
-    <row r="358" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="5" t="s">
         <v>1554</v>
       </c>
@@ -48091,7 +48096,7 @@
       </c>
       <c r="AH358" s="55"/>
     </row>
-    <row r="359" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="5" t="s">
         <v>1555</v>
       </c>
@@ -48192,7 +48197,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="360" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="5" t="s">
         <v>1556</v>
       </c>
@@ -48294,7 +48299,7 @@
       </c>
       <c r="AH360" s="55"/>
     </row>
-    <row r="361" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="5" t="s">
         <v>1557</v>
       </c>
@@ -48396,7 +48401,7 @@
       </c>
       <c r="AH361" s="55"/>
     </row>
-    <row r="362" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="5" t="s">
         <v>1558</v>
       </c>
@@ -48498,7 +48503,7 @@
       </c>
       <c r="AH362" s="55"/>
     </row>
-    <row r="363" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="5" t="s">
         <v>1559</v>
       </c>
@@ -48600,7 +48605,7 @@
       </c>
       <c r="AH363" s="55"/>
     </row>
-    <row r="364" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="5" t="s">
         <v>1560</v>
       </c>
@@ -48702,7 +48707,7 @@
       </c>
       <c r="AH364" s="55"/>
     </row>
-    <row r="365" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="5" t="s">
         <v>1561</v>
       </c>
@@ -48804,7 +48809,7 @@
       </c>
       <c r="AH365" s="55"/>
     </row>
-    <row r="366" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="5" t="s">
         <v>1562</v>
       </c>
@@ -48906,7 +48911,7 @@
       </c>
       <c r="AH366" s="55"/>
     </row>
-    <row r="367" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="5" t="s">
         <v>1563</v>
       </c>
@@ -49008,7 +49013,7 @@
       </c>
       <c r="AH367" s="55"/>
     </row>
-    <row r="368" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="5" t="s">
         <v>1564</v>
       </c>
@@ -49110,7 +49115,7 @@
       </c>
       <c r="AH368" s="55"/>
     </row>
-    <row r="369" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="5" t="s">
         <v>1565</v>
       </c>
@@ -49212,7 +49217,7 @@
       </c>
       <c r="AH369" s="55"/>
     </row>
-    <row r="370" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="5" t="s">
         <v>1566</v>
       </c>
@@ -49314,7 +49319,7 @@
       </c>
       <c r="AH370" s="55"/>
     </row>
-    <row r="371" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="5" t="s">
         <v>1567</v>
       </c>
@@ -49418,7 +49423,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="372" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="5" t="s">
         <v>1568</v>
       </c>
@@ -49520,7 +49525,7 @@
       </c>
       <c r="AH372" s="55"/>
     </row>
-    <row r="373" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="5" t="s">
         <v>1569</v>
       </c>
@@ -49624,7 +49629,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="374" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="5" t="s">
         <v>1570</v>
       </c>
@@ -49726,7 +49731,7 @@
       </c>
       <c r="AH374" s="55"/>
     </row>
-    <row r="375" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="5" t="s">
         <v>1571</v>
       </c>
@@ -49828,7 +49833,7 @@
       </c>
       <c r="AH375" s="55"/>
     </row>
-    <row r="376" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="5" t="s">
         <v>1572</v>
       </c>
@@ -49930,7 +49935,7 @@
       </c>
       <c r="AH376" s="55"/>
     </row>
-    <row r="377" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="5" t="s">
         <v>1573</v>
       </c>
@@ -50032,7 +50037,7 @@
       </c>
       <c r="AH377" s="55"/>
     </row>
-    <row r="378" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="5" t="s">
         <v>1574</v>
       </c>
@@ -50134,7 +50139,7 @@
       </c>
       <c r="AH378" s="55"/>
     </row>
-    <row r="379" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="5" t="s">
         <v>1575</v>
       </c>
@@ -50236,7 +50241,7 @@
       </c>
       <c r="AH379" s="55"/>
     </row>
-    <row r="380" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="5" t="s">
         <v>1576</v>
       </c>
@@ -50337,7 +50342,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="381" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A381" s="5" t="s">
         <v>1577</v>
       </c>
@@ -50439,7 +50444,7 @@
       </c>
       <c r="AH381" s="55"/>
     </row>
-    <row r="382" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="5" t="s">
         <v>1578</v>
       </c>
@@ -50541,7 +50546,7 @@
       </c>
       <c r="AH382" s="55"/>
     </row>
-    <row r="383" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="5" t="s">
         <v>1579</v>
       </c>
@@ -50643,7 +50648,7 @@
       </c>
       <c r="AH383" s="55"/>
     </row>
-    <row r="384" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="5" t="s">
         <v>1580</v>
       </c>
@@ -50745,7 +50750,7 @@
       </c>
       <c r="AH384" s="55"/>
     </row>
-    <row r="385" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="5" t="s">
         <v>1581</v>
       </c>
@@ -50847,7 +50852,7 @@
       </c>
       <c r="AH385" s="55"/>
     </row>
-    <row r="386" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="5" t="s">
         <v>1582</v>
       </c>
@@ -50949,7 +50954,7 @@
       </c>
       <c r="AH386" s="55"/>
     </row>
-    <row r="387" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A387" s="5" t="s">
         <v>1583</v>
       </c>
@@ -51051,7 +51056,7 @@
       </c>
       <c r="AH387" s="55"/>
     </row>
-    <row r="388" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="5" t="s">
         <v>1584</v>
       </c>
@@ -51153,7 +51158,7 @@
       </c>
       <c r="AH388" s="55"/>
     </row>
-    <row r="389" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="5" t="s">
         <v>1585</v>
       </c>
@@ -51255,7 +51260,7 @@
       </c>
       <c r="AH389" s="55"/>
     </row>
-    <row r="390" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="5" t="s">
         <v>1586</v>
       </c>
@@ -51356,7 +51361,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="391" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="5" t="s">
         <v>1587</v>
       </c>
@@ -51458,7 +51463,7 @@
       </c>
       <c r="AH391" s="55"/>
     </row>
-    <row r="392" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A392" s="5" t="s">
         <v>1588</v>
       </c>
@@ -51559,7 +51564,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="393" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="5" t="s">
         <v>1589</v>
       </c>
@@ -51661,7 +51666,7 @@
       </c>
       <c r="AH393" s="55"/>
     </row>
-    <row r="394" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="5" t="s">
         <v>1590</v>
       </c>
@@ -51763,7 +51768,7 @@
       </c>
       <c r="AH394" s="55"/>
     </row>
-    <row r="395" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="5" t="s">
         <v>1591</v>
       </c>
@@ -51865,7 +51870,7 @@
       </c>
       <c r="AH395" s="55"/>
     </row>
-    <row r="396" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="5" t="s">
         <v>1592</v>
       </c>
@@ -51966,7 +51971,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="397" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A397" s="5" t="s">
         <v>1593</v>
       </c>
@@ -52067,7 +52072,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="398" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="5" t="s">
         <v>1594</v>
       </c>
@@ -52168,7 +52173,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="399" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="5" t="s">
         <v>1595</v>
       </c>
@@ -52270,7 +52275,7 @@
       </c>
       <c r="AH399" s="55"/>
     </row>
-    <row r="400" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="5" t="s">
         <v>1596</v>
       </c>
@@ -52372,7 +52377,7 @@
       </c>
       <c r="AH400" s="55"/>
     </row>
-    <row r="401" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="5" t="s">
         <v>1597</v>
       </c>
@@ -52474,7 +52479,7 @@
       </c>
       <c r="AH401" s="55"/>
     </row>
-    <row r="402" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="5" t="s">
         <v>1598</v>
       </c>
@@ -52576,7 +52581,7 @@
       </c>
       <c r="AH402" s="55"/>
     </row>
-    <row r="403" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="5" t="s">
         <v>1599</v>
       </c>
@@ -52678,7 +52683,7 @@
       </c>
       <c r="AH403" s="55"/>
     </row>
-    <row r="404" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="5" t="s">
         <v>1600</v>
       </c>
@@ -52780,7 +52785,7 @@
       </c>
       <c r="AH404" s="55"/>
     </row>
-    <row r="405" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="5" t="s">
         <v>1601</v>
       </c>
@@ -52884,7 +52889,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="406" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="5" t="s">
         <v>1602</v>
       </c>
@@ -52986,7 +52991,7 @@
       </c>
       <c r="AH406" s="55"/>
     </row>
-    <row r="407" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="5" t="s">
         <v>1603</v>
       </c>
@@ -53088,7 +53093,7 @@
       </c>
       <c r="AH407" s="55"/>
     </row>
-    <row r="408" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="5" t="s">
         <v>1604</v>
       </c>
@@ -53190,7 +53195,7 @@
       </c>
       <c r="AH408" s="55"/>
     </row>
-    <row r="409" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="5" t="s">
         <v>1605</v>
       </c>
@@ -53292,7 +53297,7 @@
       </c>
       <c r="AH409" s="55"/>
     </row>
-    <row r="410" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="5" t="s">
         <v>1606</v>
       </c>
@@ -53394,7 +53399,7 @@
       </c>
       <c r="AH410" s="55"/>
     </row>
-    <row r="411" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="5" t="s">
         <v>1607</v>
       </c>
@@ -53496,7 +53501,7 @@
       </c>
       <c r="AH411" s="55"/>
     </row>
-    <row r="412" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="5" t="s">
         <v>1608</v>
       </c>
@@ -53598,7 +53603,7 @@
       </c>
       <c r="AH412" s="55"/>
     </row>
-    <row r="413" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="5" t="s">
         <v>1609</v>
       </c>
@@ -53700,7 +53705,7 @@
       </c>
       <c r="AH413" s="55"/>
     </row>
-    <row r="414" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="5" t="s">
         <v>1610</v>
       </c>
@@ -53804,7 +53809,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="415" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="5" t="s">
         <v>1611</v>
       </c>
@@ -53906,7 +53911,7 @@
       </c>
       <c r="AH415" s="55"/>
     </row>
-    <row r="416" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="5" t="s">
         <v>1612</v>
       </c>
@@ -54008,7 +54013,7 @@
       </c>
       <c r="AH416" s="55"/>
     </row>
-    <row r="417" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="5" t="s">
         <v>1613</v>
       </c>
@@ -54109,7 +54114,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="418" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="5" t="s">
         <v>1614</v>
       </c>
@@ -54211,7 +54216,7 @@
       </c>
       <c r="AH418" s="55"/>
     </row>
-    <row r="419" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="5" t="s">
         <v>1615</v>
       </c>
@@ -54313,7 +54318,7 @@
       </c>
       <c r="AH419" s="55"/>
     </row>
-    <row r="420" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="5" t="s">
         <v>1616</v>
       </c>
@@ -54415,7 +54420,7 @@
       </c>
       <c r="AH420" s="55"/>
     </row>
-    <row r="421" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="5" t="s">
         <v>1617</v>
       </c>
@@ -54516,7 +54521,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="422" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A422" s="5" t="s">
         <v>1618</v>
       </c>
@@ -54617,7 +54622,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="423" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="5" t="s">
         <v>1619</v>
       </c>
@@ -54721,7 +54726,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="424" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A424" s="5" t="s">
         <v>1620</v>
       </c>
@@ -54823,7 +54828,7 @@
       </c>
       <c r="AH424" s="55"/>
     </row>
-    <row r="425" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A425" s="5" t="s">
         <v>1621</v>
       </c>
@@ -54925,7 +54930,7 @@
       </c>
       <c r="AH425" s="55"/>
     </row>
-    <row r="426" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="5" t="s">
         <v>1622</v>
       </c>
@@ -55027,7 +55032,7 @@
       </c>
       <c r="AH426" s="55"/>
     </row>
-    <row r="427" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="5" t="s">
         <v>1623</v>
       </c>
@@ -55128,7 +55133,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="428" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="5" t="s">
         <v>1624</v>
       </c>
@@ -55230,7 +55235,7 @@
       </c>
       <c r="AH428" s="55"/>
     </row>
-    <row r="429" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="5" t="s">
         <v>1625</v>
       </c>
@@ -55331,7 +55336,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="430" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="5" t="s">
         <v>1626</v>
       </c>
@@ -55432,7 +55437,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="431" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="5" t="s">
         <v>1627</v>
       </c>
@@ -55534,7 +55539,7 @@
       </c>
       <c r="AH431" s="55"/>
     </row>
-    <row r="432" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="5" t="s">
         <v>1628</v>
       </c>
@@ -55636,7 +55641,7 @@
       </c>
       <c r="AH432" s="55"/>
     </row>
-    <row r="433" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="5" t="s">
         <v>1629</v>
       </c>
@@ -55737,7 +55742,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="434" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="5" t="s">
         <v>1630</v>
       </c>
@@ -55838,7 +55843,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="435" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="5" t="s">
         <v>1631</v>
       </c>
@@ -55939,7 +55944,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="436" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="5" t="s">
         <v>1632</v>
       </c>
@@ -56041,7 +56046,7 @@
       </c>
       <c r="AH436" s="55"/>
     </row>
-    <row r="437" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="5" t="s">
         <v>1633</v>
       </c>
@@ -56143,7 +56148,7 @@
       </c>
       <c r="AH437" s="55"/>
     </row>
-    <row r="438" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="5" t="s">
         <v>1634</v>
       </c>
@@ -56244,7 +56249,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="439" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="5" t="s">
         <v>1635</v>
       </c>
@@ -56346,7 +56351,7 @@
       </c>
       <c r="AH439" s="55"/>
     </row>
-    <row r="440" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="5" t="s">
         <v>1636</v>
       </c>
@@ -56448,7 +56453,7 @@
       </c>
       <c r="AH440" s="55"/>
     </row>
-    <row r="441" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="5" t="s">
         <v>1637</v>
       </c>
@@ -56550,7 +56555,7 @@
       </c>
       <c r="AH441" s="55"/>
     </row>
-    <row r="442" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="5" t="s">
         <v>1638</v>
       </c>
@@ -56652,7 +56657,7 @@
       </c>
       <c r="AH442" s="55"/>
     </row>
-    <row r="443" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="5" t="s">
         <v>1639</v>
       </c>
@@ -56754,7 +56759,7 @@
       </c>
       <c r="AH443" s="55"/>
     </row>
-    <row r="444" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="5" t="s">
         <v>1640</v>
       </c>
@@ -56856,7 +56861,7 @@
       </c>
       <c r="AH444" s="55"/>
     </row>
-    <row r="445" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="5" t="s">
         <v>1641</v>
       </c>
@@ -56958,7 +56963,7 @@
       </c>
       <c r="AH445" s="55"/>
     </row>
-    <row r="446" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="5" t="s">
         <v>1642</v>
       </c>
@@ -57060,7 +57065,7 @@
       </c>
       <c r="AH446" s="55"/>
     </row>
-    <row r="447" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="5" t="s">
         <v>1643</v>
       </c>
@@ -57162,7 +57167,7 @@
       </c>
       <c r="AH447" s="55"/>
     </row>
-    <row r="448" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="5" t="s">
         <v>1644</v>
       </c>
@@ -57264,7 +57269,7 @@
       </c>
       <c r="AH448" s="55"/>
     </row>
-    <row r="449" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="5" t="s">
         <v>1645</v>
       </c>
@@ -57368,7 +57373,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="450" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="5" t="s">
         <v>1646</v>
       </c>
@@ -57469,7 +57474,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="451" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="5" t="s">
         <v>1647</v>
       </c>
@@ -57573,7 +57578,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="452" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="5" t="s">
         <v>1648</v>
       </c>
@@ -57677,7 +57682,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="453" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="5" t="s">
         <v>1649</v>
       </c>
@@ -57779,7 +57784,7 @@
       </c>
       <c r="AH453" s="55"/>
     </row>
-    <row r="454" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="5" t="s">
         <v>1650</v>
       </c>
@@ -57881,7 +57886,7 @@
       </c>
       <c r="AH454" s="55"/>
     </row>
-    <row r="455" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="5" t="s">
         <v>1651</v>
       </c>
@@ -57983,7 +57988,7 @@
       </c>
       <c r="AH455" s="55"/>
     </row>
-    <row r="456" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="5" t="s">
         <v>1652</v>
       </c>
@@ -58087,7 +58092,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="457" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="5" t="s">
         <v>1653</v>
       </c>
@@ -58191,7 +58196,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="458" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="5" t="s">
         <v>1654</v>
       </c>
@@ -58295,7 +58300,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="459" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="5" t="s">
         <v>1655</v>
       </c>
@@ -58399,7 +58404,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="460" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="5" t="s">
         <v>1656</v>
       </c>
@@ -58503,7 +58508,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="461" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="5" t="s">
         <v>1657</v>
       </c>
@@ -58607,7 +58612,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="462" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="5" t="s">
         <v>1658</v>
       </c>
@@ -58711,7 +58716,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="463" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A463" s="5" t="s">
         <v>1659</v>
       </c>
@@ -58812,7 +58817,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="464" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A464" s="5" t="s">
         <v>1660</v>
       </c>
@@ -58913,7 +58918,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="465" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="5" t="s">
         <v>1661</v>
       </c>
@@ -59017,7 +59022,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="466" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="5" t="s">
         <v>1662</v>
       </c>
@@ -59119,7 +59124,7 @@
       </c>
       <c r="AH466" s="55"/>
     </row>
-    <row r="467" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="5" t="s">
         <v>1663</v>
       </c>
@@ -59221,7 +59226,7 @@
       </c>
       <c r="AH467" s="55"/>
     </row>
-    <row r="468" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="5" t="s">
         <v>1664</v>
       </c>
@@ -59323,7 +59328,7 @@
       </c>
       <c r="AH468" s="55"/>
     </row>
-    <row r="469" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="5" t="s">
         <v>1665</v>
       </c>
@@ -59425,7 +59430,7 @@
       </c>
       <c r="AH469" s="55"/>
     </row>
-    <row r="470" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="5" t="s">
         <v>1666</v>
       </c>
@@ -59527,7 +59532,7 @@
       </c>
       <c r="AH470" s="55"/>
     </row>
-    <row r="471" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="5" t="s">
         <v>1667</v>
       </c>
@@ -59629,7 +59634,7 @@
       </c>
       <c r="AH471" s="55"/>
     </row>
-    <row r="472" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="5" t="s">
         <v>1668</v>
       </c>
@@ -59731,7 +59736,7 @@
       </c>
       <c r="AH472" s="55"/>
     </row>
-    <row r="473" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="5" t="s">
         <v>1669</v>
       </c>
@@ -59835,7 +59840,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="474" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="5" t="s">
         <v>1670</v>
       </c>
@@ -59939,7 +59944,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="475" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="5" t="s">
         <v>1671</v>
       </c>
@@ -60043,7 +60048,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="476" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="5" t="s">
         <v>1672</v>
       </c>
@@ -60147,7 +60152,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="477" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A477" s="5" t="s">
         <v>1673</v>
       </c>
@@ -60251,7 +60256,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="478" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="5" t="s">
         <v>1674</v>
       </c>
@@ -60355,7 +60360,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="479" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="5" t="s">
         <v>1675</v>
       </c>
@@ -60459,7 +60464,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="480" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="5" t="s">
         <v>1676</v>
       </c>
@@ -60563,7 +60568,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="481" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="5" t="s">
         <v>1677</v>
       </c>
@@ -60667,7 +60672,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="482" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A482" s="5" t="s">
         <v>1678</v>
       </c>
@@ -60771,7 +60776,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="483" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="5" t="s">
         <v>1679</v>
       </c>
@@ -60873,7 +60878,7 @@
       </c>
       <c r="AH483" s="55"/>
     </row>
-    <row r="484" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="5" t="s">
         <v>1680</v>
       </c>
@@ -60975,7 +60980,7 @@
       </c>
       <c r="AH484" s="55"/>
     </row>
-    <row r="485" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="5" t="s">
         <v>1681</v>
       </c>
@@ -61077,7 +61082,7 @@
       </c>
       <c r="AH485" s="55"/>
     </row>
-    <row r="486" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="5" t="s">
         <v>1682</v>
       </c>
@@ -61179,7 +61184,7 @@
       </c>
       <c r="AH486" s="55"/>
     </row>
-    <row r="487" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="5" t="s">
         <v>1683</v>
       </c>
@@ -61281,7 +61286,7 @@
       </c>
       <c r="AH487" s="55"/>
     </row>
-    <row r="488" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="5" t="s">
         <v>1684</v>
       </c>
@@ -61383,7 +61388,7 @@
       </c>
       <c r="AH488" s="55"/>
     </row>
-    <row r="489" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A489" s="5" t="s">
         <v>1685</v>
       </c>
@@ -61484,7 +61489,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="490" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A490" s="5" t="s">
         <v>1686</v>
       </c>
@@ -61586,7 +61591,7 @@
       </c>
       <c r="AH490" s="55"/>
     </row>
-    <row r="491" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A491" s="5" t="s">
         <v>1687</v>
       </c>
@@ -61688,7 +61693,7 @@
       </c>
       <c r="AH491" s="55"/>
     </row>
-    <row r="492" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="5" t="s">
         <v>1688</v>
       </c>
@@ -61790,7 +61795,7 @@
       </c>
       <c r="AH492" s="55"/>
     </row>
-    <row r="493" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A493" s="5" t="s">
         <v>1689</v>
       </c>
@@ -61891,7 +61896,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="494" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="5" t="s">
         <v>1690</v>
       </c>
@@ -61993,7 +61998,7 @@
       </c>
       <c r="AH494" s="55"/>
     </row>
-    <row r="495" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A495" s="5" t="s">
         <v>1691</v>
       </c>
@@ -62095,7 +62100,7 @@
       </c>
       <c r="AH495" s="55"/>
     </row>
-    <row r="496" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A496" s="5" t="s">
         <v>1692</v>
       </c>
@@ -62197,7 +62202,7 @@
       </c>
       <c r="AH496" s="55"/>
     </row>
-    <row r="497" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A497" s="5" t="s">
         <v>1693</v>
       </c>
@@ -62301,7 +62306,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="498" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="5" t="s">
         <v>1694</v>
       </c>
@@ -62403,7 +62408,7 @@
       </c>
       <c r="AH498" s="55"/>
     </row>
-    <row r="499" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="5" t="s">
         <v>1695</v>
       </c>
@@ -62505,7 +62510,7 @@
       </c>
       <c r="AH499" s="55"/>
     </row>
-    <row r="500" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="5" t="s">
         <v>1696</v>
       </c>
@@ -62607,7 +62612,7 @@
       </c>
       <c r="AH500" s="55"/>
     </row>
-    <row r="501" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="5" t="s">
         <v>1697</v>
       </c>
@@ -62709,7 +62714,7 @@
       </c>
       <c r="AH501" s="55"/>
     </row>
-    <row r="502" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A502" s="6"/>
       <c r="B502" s="55"/>
       <c r="C502" s="51"/>
@@ -62742,7 +62747,7 @@
       <c r="AG502" s="6"/>
       <c r="AH502" s="55"/>
     </row>
-    <row r="503" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A503" s="6"/>
       <c r="B503" s="55"/>
       <c r="C503" s="51"/>
@@ -62775,7 +62780,7 @@
       <c r="AG503" s="6"/>
       <c r="AH503" s="55"/>
     </row>
-    <row r="504" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A504" s="6"/>
       <c r="B504" s="55"/>
       <c r="C504" s="51"/>
@@ -62808,7 +62813,7 @@
       <c r="AG504" s="6"/>
       <c r="AH504" s="55"/>
     </row>
-    <row r="505" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A505" s="6"/>
       <c r="B505" s="55"/>
       <c r="C505" s="51"/>
@@ -62841,7 +62846,7 @@
       <c r="AG505" s="6"/>
       <c r="AH505" s="55"/>
     </row>
-    <row r="506" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A506" s="6"/>
       <c r="B506" s="55"/>
       <c r="C506" s="51"/>
@@ -62874,7 +62879,7 @@
       <c r="AG506" s="6"/>
       <c r="AH506" s="55"/>
     </row>
-    <row r="507" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A507" s="6"/>
       <c r="B507" s="55"/>
       <c r="C507" s="51"/>
@@ -62907,7 +62912,7 @@
       <c r="AG507" s="6"/>
       <c r="AH507" s="55"/>
     </row>
-    <row r="508" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A508" s="6"/>
       <c r="B508" s="55"/>
       <c r="C508" s="51"/>
@@ -62940,7 +62945,7 @@
       <c r="AG508" s="6"/>
       <c r="AH508" s="55"/>
     </row>
-    <row r="509" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A509" s="6"/>
       <c r="B509" s="55"/>
       <c r="C509" s="51"/>
@@ -62973,7 +62978,7 @@
       <c r="AG509" s="6"/>
       <c r="AH509" s="55"/>
     </row>
-    <row r="510" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A510" s="6"/>
       <c r="B510" s="55"/>
       <c r="C510" s="51"/>
@@ -63006,7 +63011,7 @@
       <c r="AG510" s="6"/>
       <c r="AH510" s="55"/>
     </row>
-    <row r="511" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A511" s="6"/>
       <c r="B511" s="55"/>
       <c r="C511" s="51"/>
@@ -63039,7 +63044,7 @@
       <c r="AG511" s="6"/>
       <c r="AH511" s="55"/>
     </row>
-    <row r="512" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A512" s="6"/>
       <c r="B512" s="55"/>
       <c r="C512" s="51"/>
@@ -63072,7 +63077,7 @@
       <c r="AG512" s="6"/>
       <c r="AH512" s="55"/>
     </row>
-    <row r="513" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A513" s="6"/>
       <c r="B513" s="55"/>
       <c r="C513" s="51"/>
@@ -63105,7 +63110,7 @@
       <c r="AG513" s="6"/>
       <c r="AH513" s="55"/>
     </row>
-    <row r="514" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A514" s="6"/>
       <c r="B514" s="55"/>
       <c r="C514" s="51"/>
@@ -63138,7 +63143,7 @@
       <c r="AG514" s="6"/>
       <c r="AH514" s="55"/>
     </row>
-    <row r="515" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A515" s="6"/>
       <c r="B515" s="55"/>
       <c r="C515" s="51"/>
@@ -63171,7 +63176,7 @@
       <c r="AG515" s="6"/>
       <c r="AH515" s="55"/>
     </row>
-    <row r="516" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A516" s="6"/>
       <c r="B516" s="55"/>
       <c r="C516" s="51"/>
@@ -63204,7 +63209,7 @@
       <c r="AG516" s="6"/>
       <c r="AH516" s="55"/>
     </row>
-    <row r="517" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A517" s="6"/>
       <c r="B517" s="55"/>
       <c r="C517" s="51"/>
@@ -63237,7 +63242,7 @@
       <c r="AG517" s="6"/>
       <c r="AH517" s="55"/>
     </row>
-    <row r="518" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A518" s="6"/>
       <c r="B518" s="55"/>
       <c r="C518" s="51"/>
@@ -63270,7 +63275,7 @@
       <c r="AG518" s="6"/>
       <c r="AH518" s="55"/>
     </row>
-    <row r="519" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A519" s="6"/>
       <c r="B519" s="55"/>
       <c r="C519" s="51"/>
@@ -63303,7 +63308,7 @@
       <c r="AG519" s="6"/>
       <c r="AH519" s="55"/>
     </row>
-    <row r="520" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A520" s="6"/>
       <c r="B520" s="55"/>
       <c r="C520" s="51"/>
@@ -63336,7 +63341,7 @@
       <c r="AG520" s="6"/>
       <c r="AH520" s="55"/>
     </row>
-    <row r="521" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A521" s="6"/>
       <c r="B521" s="55"/>
       <c r="C521" s="51"/>
@@ -63369,7 +63374,7 @@
       <c r="AG521" s="6"/>
       <c r="AH521" s="55"/>
     </row>
-    <row r="522" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A522" s="6"/>
       <c r="B522" s="55"/>
       <c r="C522" s="51"/>
@@ -63402,7 +63407,7 @@
       <c r="AG522" s="6"/>
       <c r="AH522" s="55"/>
     </row>
-    <row r="523" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A523" s="6"/>
       <c r="B523" s="55"/>
       <c r="C523" s="51"/>
@@ -63435,7 +63440,7 @@
       <c r="AG523" s="6"/>
       <c r="AH523" s="55"/>
     </row>
-    <row r="524" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A524" s="6"/>
       <c r="B524" s="55"/>
       <c r="C524" s="51"/>
@@ -63468,7 +63473,7 @@
       <c r="AG524" s="6"/>
       <c r="AH524" s="55"/>
     </row>
-    <row r="525" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A525" s="6"/>
       <c r="B525" s="55"/>
       <c r="C525" s="51"/>
@@ -63501,7 +63506,7 @@
       <c r="AG525" s="6"/>
       <c r="AH525" s="55"/>
     </row>
-    <row r="526" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A526" s="6"/>
       <c r="B526" s="55"/>
       <c r="C526" s="51"/>
@@ -63534,7 +63539,7 @@
       <c r="AG526" s="6"/>
       <c r="AH526" s="55"/>
     </row>
-    <row r="527" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A527" s="6"/>
       <c r="B527" s="55"/>
       <c r="C527" s="51"/>
@@ -63567,7 +63572,7 @@
       <c r="AG527" s="6"/>
       <c r="AH527" s="55"/>
     </row>
-    <row r="528" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A528" s="6"/>
       <c r="B528" s="55"/>
       <c r="C528" s="51"/>
@@ -63600,7 +63605,7 @@
       <c r="AG528" s="6"/>
       <c r="AH528" s="55"/>
     </row>
-    <row r="529" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A529" s="6"/>
       <c r="B529" s="55"/>
       <c r="C529" s="51"/>
@@ -63633,7 +63638,7 @@
       <c r="AG529" s="6"/>
       <c r="AH529" s="55"/>
     </row>
-    <row r="530" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A530" s="6"/>
       <c r="B530" s="55"/>
       <c r="C530" s="51"/>
@@ -63666,7 +63671,7 @@
       <c r="AG530" s="6"/>
       <c r="AH530" s="55"/>
     </row>
-    <row r="531" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A531" s="6"/>
       <c r="B531" s="55"/>
       <c r="C531" s="51"/>
@@ -63699,7 +63704,7 @@
       <c r="AG531" s="6"/>
       <c r="AH531" s="55"/>
     </row>
-    <row r="532" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A532" s="6"/>
       <c r="B532" s="55"/>
       <c r="C532" s="51"/>
@@ -63732,7 +63737,7 @@
       <c r="AG532" s="6"/>
       <c r="AH532" s="55"/>
     </row>
-    <row r="533" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A533" s="6"/>
       <c r="B533" s="55"/>
       <c r="C533" s="51"/>
@@ -63765,7 +63770,7 @@
       <c r="AG533" s="6"/>
       <c r="AH533" s="55"/>
     </row>
-    <row r="534" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A534" s="6"/>
       <c r="B534" s="55"/>
       <c r="C534" s="51"/>
@@ -63798,7 +63803,7 @@
       <c r="AG534" s="6"/>
       <c r="AH534" s="55"/>
     </row>
-    <row r="535" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A535" s="6"/>
       <c r="B535" s="55"/>
       <c r="C535" s="51"/>
@@ -63831,7 +63836,7 @@
       <c r="AG535" s="6"/>
       <c r="AH535" s="55"/>
     </row>
-    <row r="536" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A536" s="6"/>
       <c r="B536" s="55"/>
       <c r="C536" s="51"/>
@@ -63864,7 +63869,7 @@
       <c r="AG536" s="6"/>
       <c r="AH536" s="55"/>
     </row>
-    <row r="537" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A537" s="6"/>
       <c r="B537" s="55"/>
       <c r="C537" s="51"/>
@@ -63897,7 +63902,7 @@
       <c r="AG537" s="6"/>
       <c r="AH537" s="55"/>
     </row>
-    <row r="538" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A538" s="6"/>
       <c r="B538" s="55"/>
       <c r="C538" s="51"/>
@@ -63930,7 +63935,7 @@
       <c r="AG538" s="6"/>
       <c r="AH538" s="55"/>
     </row>
-    <row r="539" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A539" s="6"/>
       <c r="B539" s="55"/>
       <c r="C539" s="51"/>
@@ -63963,7 +63968,7 @@
       <c r="AG539" s="6"/>
       <c r="AH539" s="55"/>
     </row>
-    <row r="540" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A540" s="6"/>
       <c r="B540" s="55"/>
       <c r="C540" s="51"/>
@@ -63996,7 +64001,7 @@
       <c r="AG540" s="6"/>
       <c r="AH540" s="55"/>
     </row>
-    <row r="541" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A541" s="6"/>
       <c r="B541" s="55"/>
       <c r="C541" s="51"/>
@@ -64029,7 +64034,7 @@
       <c r="AG541" s="6"/>
       <c r="AH541" s="55"/>
     </row>
-    <row r="542" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A542" s="6"/>
       <c r="B542" s="55"/>
       <c r="C542" s="51"/>
@@ -64062,7 +64067,7 @@
       <c r="AG542" s="6"/>
       <c r="AH542" s="55"/>
     </row>
-    <row r="543" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A543" s="6"/>
       <c r="B543" s="55"/>
       <c r="C543" s="51"/>
@@ -64095,7 +64100,7 @@
       <c r="AG543" s="6"/>
       <c r="AH543" s="55"/>
     </row>
-    <row r="544" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A544" s="6"/>
       <c r="B544" s="55"/>
       <c r="C544" s="51"/>
@@ -64128,7 +64133,7 @@
       <c r="AG544" s="6"/>
       <c r="AH544" s="55"/>
     </row>
-    <row r="545" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A545" s="6"/>
       <c r="B545" s="55"/>
       <c r="C545" s="51"/>
@@ -64161,7 +64166,7 @@
       <c r="AG545" s="6"/>
       <c r="AH545" s="55"/>
     </row>
-    <row r="546" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A546" s="6"/>
       <c r="B546" s="55"/>
       <c r="C546" s="51"/>
@@ -64194,7 +64199,7 @@
       <c r="AG546" s="6"/>
       <c r="AH546" s="55"/>
     </row>
-    <row r="547" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A547" s="6"/>
       <c r="B547" s="55"/>
       <c r="C547" s="51"/>
@@ -64227,7 +64232,7 @@
       <c r="AG547" s="6"/>
       <c r="AH547" s="55"/>
     </row>
-    <row r="548" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A548" s="6"/>
       <c r="B548" s="55"/>
       <c r="C548" s="51"/>
@@ -64260,7 +64265,7 @@
       <c r="AG548" s="6"/>
       <c r="AH548" s="55"/>
     </row>
-    <row r="549" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A549" s="6"/>
       <c r="B549" s="55"/>
       <c r="C549" s="51"/>
@@ -64293,7 +64298,7 @@
       <c r="AG549" s="6"/>
       <c r="AH549" s="55"/>
     </row>
-    <row r="550" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A550" s="6"/>
       <c r="B550" s="55"/>
       <c r="C550" s="51"/>
@@ -64326,7 +64331,7 @@
       <c r="AG550" s="6"/>
       <c r="AH550" s="55"/>
     </row>
-    <row r="551" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A551" s="6"/>
       <c r="B551" s="55"/>
       <c r="C551" s="51"/>
@@ -64359,7 +64364,7 @@
       <c r="AG551" s="6"/>
       <c r="AH551" s="55"/>
     </row>
-    <row r="552" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A552" s="6"/>
       <c r="B552" s="55"/>
       <c r="C552" s="51"/>
@@ -64392,7 +64397,7 @@
       <c r="AG552" s="6"/>
       <c r="AH552" s="55"/>
     </row>
-    <row r="553" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A553" s="6"/>
       <c r="B553" s="55"/>
       <c r="C553" s="51"/>
@@ -64425,7 +64430,7 @@
       <c r="AG553" s="6"/>
       <c r="AH553" s="55"/>
     </row>
-    <row r="554" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A554" s="6"/>
       <c r="B554" s="55"/>
       <c r="C554" s="51"/>
@@ -64458,7 +64463,7 @@
       <c r="AG554" s="6"/>
       <c r="AH554" s="55"/>
     </row>
-    <row r="555" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A555" s="6"/>
       <c r="B555" s="55"/>
       <c r="C555" s="51"/>
@@ -64491,7 +64496,7 @@
       <c r="AG555" s="6"/>
       <c r="AH555" s="55"/>
     </row>
-    <row r="556" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A556" s="6"/>
       <c r="B556" s="55"/>
       <c r="C556" s="51"/>
@@ -64524,7 +64529,7 @@
       <c r="AG556" s="6"/>
       <c r="AH556" s="55"/>
     </row>
-    <row r="557" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A557" s="6"/>
       <c r="B557" s="55"/>
       <c r="C557" s="51"/>
@@ -64557,7 +64562,7 @@
       <c r="AG557" s="6"/>
       <c r="AH557" s="55"/>
     </row>
-    <row r="558" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A558" s="6"/>
       <c r="B558" s="55"/>
       <c r="C558" s="51"/>
@@ -64590,7 +64595,7 @@
       <c r="AG558" s="6"/>
       <c r="AH558" s="55"/>
     </row>
-    <row r="559" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A559" s="6"/>
       <c r="B559" s="55"/>
       <c r="C559" s="51"/>
@@ -64623,7 +64628,7 @@
       <c r="AG559" s="6"/>
       <c r="AH559" s="55"/>
     </row>
-    <row r="560" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A560" s="6"/>
       <c r="B560" s="55"/>
       <c r="C560" s="51"/>
@@ -64656,7 +64661,7 @@
       <c r="AG560" s="6"/>
       <c r="AH560" s="55"/>
     </row>
-    <row r="561" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A561" s="6"/>
       <c r="B561" s="55"/>
       <c r="C561" s="51"/>
@@ -64689,7 +64694,7 @@
       <c r="AG561" s="6"/>
       <c r="AH561" s="55"/>
     </row>
-    <row r="562" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A562" s="6"/>
       <c r="B562" s="55"/>
       <c r="C562" s="51"/>
@@ -64722,7 +64727,7 @@
       <c r="AG562" s="6"/>
       <c r="AH562" s="55"/>
     </row>
-    <row r="563" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A563" s="6"/>
       <c r="B563" s="55"/>
       <c r="C563" s="51"/>
@@ -64755,7 +64760,7 @@
       <c r="AG563" s="6"/>
       <c r="AH563" s="55"/>
     </row>
-    <row r="564" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A564" s="6"/>
       <c r="B564" s="55"/>
       <c r="C564" s="51"/>
@@ -64788,7 +64793,7 @@
       <c r="AG564" s="6"/>
       <c r="AH564" s="55"/>
     </row>
-    <row r="565" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A565" s="6"/>
       <c r="B565" s="55"/>
       <c r="C565" s="51"/>
@@ -64821,7 +64826,7 @@
       <c r="AG565" s="6"/>
       <c r="AH565" s="55"/>
     </row>
-    <row r="566" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A566" s="6"/>
       <c r="B566" s="55"/>
       <c r="C566" s="51"/>
@@ -64854,7 +64859,7 @@
       <c r="AG566" s="6"/>
       <c r="AH566" s="55"/>
     </row>
-    <row r="567" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A567" s="6"/>
       <c r="B567" s="55"/>
       <c r="C567" s="51"/>
@@ -64887,7 +64892,7 @@
       <c r="AG567" s="6"/>
       <c r="AH567" s="55"/>
     </row>
-    <row r="568" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A568" s="6"/>
       <c r="B568" s="55"/>
       <c r="C568" s="51"/>
@@ -64920,7 +64925,7 @@
       <c r="AG568" s="6"/>
       <c r="AH568" s="55"/>
     </row>
-    <row r="569" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A569" s="6"/>
       <c r="B569" s="55"/>
       <c r="C569" s="51"/>
@@ -64953,7 +64958,7 @@
       <c r="AG569" s="6"/>
       <c r="AH569" s="55"/>
     </row>
-    <row r="570" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A570" s="6"/>
       <c r="B570" s="55"/>
       <c r="C570" s="51"/>
@@ -64986,7 +64991,7 @@
       <c r="AG570" s="6"/>
       <c r="AH570" s="55"/>
     </row>
-    <row r="571" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A571" s="6"/>
       <c r="B571" s="55"/>
       <c r="C571" s="51"/>
@@ -65019,7 +65024,7 @@
       <c r="AG571" s="6"/>
       <c r="AH571" s="55"/>
     </row>
-    <row r="572" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A572" s="6"/>
       <c r="B572" s="55"/>
       <c r="C572" s="51"/>
@@ -65052,7 +65057,7 @@
       <c r="AG572" s="6"/>
       <c r="AH572" s="55"/>
     </row>
-    <row r="573" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A573" s="6"/>
       <c r="B573" s="55"/>
       <c r="C573" s="51"/>
@@ -65085,7 +65090,7 @@
       <c r="AG573" s="6"/>
       <c r="AH573" s="55"/>
     </row>
-    <row r="574" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A574" s="6"/>
       <c r="B574" s="55"/>
       <c r="C574" s="51"/>
@@ -65118,7 +65123,7 @@
       <c r="AG574" s="6"/>
       <c r="AH574" s="55"/>
     </row>
-    <row r="575" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A575" s="6"/>
       <c r="B575" s="55"/>
       <c r="C575" s="51"/>
@@ -65151,7 +65156,7 @@
       <c r="AG575" s="6"/>
       <c r="AH575" s="55"/>
     </row>
-    <row r="576" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A576" s="6"/>
       <c r="B576" s="55"/>
       <c r="C576" s="51"/>
@@ -65184,7 +65189,7 @@
       <c r="AG576" s="6"/>
       <c r="AH576" s="55"/>
     </row>
-    <row r="577" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A577" s="6"/>
       <c r="B577" s="55"/>
       <c r="C577" s="51"/>
@@ -65217,7 +65222,7 @@
       <c r="AG577" s="6"/>
       <c r="AH577" s="55"/>
     </row>
-    <row r="578" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A578" s="6"/>
       <c r="B578" s="55"/>
       <c r="C578" s="51"/>
@@ -65250,7 +65255,7 @@
       <c r="AG578" s="6"/>
       <c r="AH578" s="55"/>
     </row>
-    <row r="579" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A579" s="6"/>
       <c r="B579" s="55"/>
       <c r="C579" s="51"/>
@@ -65283,7 +65288,7 @@
       <c r="AG579" s="6"/>
       <c r="AH579" s="55"/>
     </row>
-    <row r="580" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A580" s="6"/>
       <c r="B580" s="55"/>
       <c r="C580" s="51"/>
@@ -65316,7 +65321,7 @@
       <c r="AG580" s="6"/>
       <c r="AH580" s="55"/>
     </row>
-    <row r="581" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A581" s="6"/>
       <c r="B581" s="55"/>
       <c r="C581" s="51"/>
@@ -65349,7 +65354,7 @@
       <c r="AG581" s="6"/>
       <c r="AH581" s="55"/>
     </row>
-    <row r="582" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A582" s="6"/>
       <c r="B582" s="55"/>
       <c r="C582" s="51"/>
@@ -65382,7 +65387,7 @@
       <c r="AG582" s="6"/>
       <c r="AH582" s="55"/>
     </row>
-    <row r="583" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A583" s="6"/>
       <c r="B583" s="55"/>
       <c r="C583" s="51"/>
@@ -65415,7 +65420,7 @@
       <c r="AG583" s="6"/>
       <c r="AH583" s="55"/>
     </row>
-    <row r="584" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A584" s="6"/>
       <c r="B584" s="55"/>
       <c r="C584" s="51"/>
@@ -65448,7 +65453,7 @@
       <c r="AG584" s="6"/>
       <c r="AH584" s="55"/>
     </row>
-    <row r="585" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A585" s="6"/>
       <c r="B585" s="55"/>
       <c r="C585" s="51"/>
@@ -65481,7 +65486,7 @@
       <c r="AG585" s="6"/>
       <c r="AH585" s="55"/>
     </row>
-    <row r="586" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A586" s="6"/>
       <c r="B586" s="55"/>
       <c r="C586" s="51"/>
@@ -65514,7 +65519,7 @@
       <c r="AG586" s="6"/>
       <c r="AH586" s="55"/>
     </row>
-    <row r="587" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A587" s="6"/>
       <c r="B587" s="55"/>
       <c r="C587" s="51"/>
@@ -65547,7 +65552,7 @@
       <c r="AG587" s="6"/>
       <c r="AH587" s="55"/>
     </row>
-    <row r="588" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A588" s="6"/>
       <c r="B588" s="55"/>
       <c r="C588" s="51"/>
@@ -65580,7 +65585,7 @@
       <c r="AG588" s="6"/>
       <c r="AH588" s="55"/>
     </row>
-    <row r="589" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A589" s="6"/>
       <c r="B589" s="55"/>
       <c r="C589" s="51"/>
@@ -65613,7 +65618,7 @@
       <c r="AG589" s="6"/>
       <c r="AH589" s="55"/>
     </row>
-    <row r="590" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A590" s="6"/>
       <c r="B590" s="55"/>
       <c r="C590" s="51"/>
@@ -65646,7 +65651,7 @@
       <c r="AG590" s="6"/>
       <c r="AH590" s="55"/>
     </row>
-    <row r="591" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A591" s="6"/>
       <c r="B591" s="55"/>
       <c r="C591" s="51"/>
@@ -65679,7 +65684,7 @@
       <c r="AG591" s="6"/>
       <c r="AH591" s="55"/>
     </row>
-    <row r="592" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A592" s="6"/>
       <c r="B592" s="55"/>
       <c r="C592" s="51"/>
@@ -65712,7 +65717,7 @@
       <c r="AG592" s="6"/>
       <c r="AH592" s="55"/>
     </row>
-    <row r="593" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A593" s="6"/>
       <c r="B593" s="55"/>
       <c r="C593" s="51"/>
@@ -65745,7 +65750,7 @@
       <c r="AG593" s="6"/>
       <c r="AH593" s="55"/>
     </row>
-    <row r="594" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A594" s="6"/>
       <c r="B594" s="55"/>
       <c r="C594" s="51"/>
@@ -65778,7 +65783,7 @@
       <c r="AG594" s="6"/>
       <c r="AH594" s="55"/>
     </row>
-    <row r="595" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A595" s="6"/>
       <c r="B595" s="55"/>
       <c r="C595" s="51"/>
@@ -65811,7 +65816,7 @@
       <c r="AG595" s="6"/>
       <c r="AH595" s="55"/>
     </row>
-    <row r="596" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A596" s="6"/>
       <c r="B596" s="55"/>
       <c r="C596" s="51"/>
@@ -65857,1412 +65862,1412 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="39"/>
+    <col min="1" max="1" width="8.6328125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="61" t="s">
         <v>2893</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="39" t="s">
         <v>2894</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>2895</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
         <v>2896</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
         <v>2897</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
         <v>2898</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="39" t="s">
         <v>2899</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
         <v>2901</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
         <v>2902</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="39" t="s">
         <v>2903</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
         <v>2904</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="39" t="s">
         <v>2905</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="39" t="s">
         <v>2906</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="39" t="s">
         <v>2907</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="39" t="s">
         <v>2908</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="39" t="s">
         <v>2909</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="39" t="s">
         <v>2910</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
         <v>2911</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="39" t="s">
         <v>2912</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="39" t="s">
         <v>2913</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="39" t="s">
         <v>2914</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="39" t="s">
         <v>2915</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="39" t="s">
         <v>2916</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="39" t="s">
         <v>2917</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="39" t="s">
         <v>2918</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="39" t="s">
         <v>2919</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="39" t="s">
         <v>2920</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="39" t="s">
         <v>2921</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="39" t="s">
         <v>2922</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="39" t="s">
         <v>2923</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="39" t="s">
         <v>2924</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="39" t="s">
         <v>2925</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="39" t="s">
         <v>2926</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="39" t="s">
         <v>2927</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="39" t="s">
         <v>2928</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="39" t="s">
         <v>2929</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="39" t="s">
         <v>2930</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="39" t="s">
         <v>2931</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="39" t="s">
         <v>2932</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="39" t="s">
         <v>2933</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="39" t="s">
         <v>2934</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="39" t="s">
         <v>2935</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="39" t="s">
         <v>2936</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="39" t="s">
         <v>2937</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="39" t="s">
         <v>2938</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="39" t="s">
         <v>2939</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="39" t="s">
         <v>2940</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="39" t="s">
         <v>2941</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="39" t="s">
         <v>2942</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="39" t="s">
         <v>2943</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="39" t="s">
         <v>2944</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="39" t="s">
         <v>2945</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="39" t="s">
         <v>2946</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="39" t="s">
         <v>2947</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="39" t="s">
         <v>2948</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="39" t="s">
         <v>2949</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="39" t="s">
         <v>2950</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="39" t="s">
         <v>2951</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="39" t="s">
         <v>2952</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="39" t="s">
         <v>2953</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="39" t="s">
         <v>2954</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="39" t="s">
         <v>2955</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="39" t="s">
         <v>2956</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="39" t="s">
         <v>2957</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="39" t="s">
         <v>2958</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="39" t="s">
         <v>2959</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="39" t="s">
         <v>2960</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="39" t="s">
         <v>2961</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="39" t="s">
         <v>2962</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="39" t="s">
         <v>2963</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="39" t="s">
         <v>2964</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="39" t="s">
         <v>2965</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="39" t="s">
         <v>2966</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="39" t="s">
         <v>2967</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="39" t="s">
         <v>2968</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="39" t="s">
         <v>2969</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="39" t="s">
         <v>2970</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="39" t="s">
         <v>2971</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="39" t="s">
         <v>2972</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="62" t="s">
         <v>2973</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="39" t="s">
         <v>2974</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="62" t="s">
         <v>2975</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="62" t="s">
         <v>2976</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="62" t="s">
         <v>2977</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="62" t="s">
         <v>2978</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="62" t="s">
         <v>2979</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="62" t="s">
         <v>2980</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="39" t="s">
         <v>2981</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="39" t="s">
         <v>2982</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="39" t="s">
         <v>2983</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="39" t="s">
         <v>2984</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="62" t="s">
         <v>2985</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="39" t="s">
         <v>2986</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="39" t="s">
         <v>2987</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="39" t="s">
         <v>2988</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="39" t="s">
         <v>2989</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="39" t="s">
         <v>2990</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="39" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="39" t="s">
         <v>2992</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="39" t="s">
         <v>2993</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="39" t="s">
         <v>2994</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="39" t="s">
         <v>2995</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="39" t="s">
         <v>2996</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="39" t="s">
         <v>2997</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="39" t="s">
         <v>2998</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="39" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="39" t="s">
         <v>3000</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="39" t="s">
         <v>3001</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="39" t="s">
         <v>3002</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="39" t="s">
         <v>3003</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="39" t="s">
         <v>3004</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="62" t="s">
         <v>3005</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="39" t="s">
         <v>3006</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="39" t="s">
         <v>3007</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="39" t="s">
         <v>3008</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="39" t="s">
         <v>3009</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="39" t="s">
         <v>3010</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="39" t="s">
         <v>3011</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="39" t="s">
         <v>3012</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="39" t="s">
         <v>3013</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="39" t="s">
         <v>3014</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="62" t="s">
         <v>3015</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="39" t="s">
         <v>3016</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="39" t="s">
         <v>3017</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="39" t="s">
         <v>3018</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="39" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="39" t="s">
         <v>3020</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="39" t="s">
         <v>3021</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="39" t="s">
         <v>3022</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="39" t="s">
         <v>3023</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="39" t="s">
         <v>3024</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="39" t="s">
         <v>3025</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="39" t="s">
         <v>3026</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="39" t="s">
         <v>3027</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="39" t="s">
         <v>3028</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="39" t="s">
         <v>3029</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="39" t="s">
         <v>3030</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="39" t="s">
         <v>3031</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="39" t="s">
         <v>3032</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="39" t="s">
         <v>3033</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="39" t="s">
         <v>3034</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="39" t="s">
         <v>3035</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="39" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="39" t="s">
         <v>3037</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="39" t="s">
         <v>3038</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="39" t="s">
         <v>3039</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="39" t="s">
         <v>3040</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="39" t="s">
         <v>3041</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="39" t="s">
         <v>3042</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="39" t="s">
         <v>3043</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="39" t="s">
         <v>3044</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="39" t="s">
         <v>3045</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="39" t="s">
         <v>3046</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="39" t="s">
         <v>3047</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="39" t="s">
         <v>3048</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="39" t="s">
         <v>3049</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="39" t="s">
         <v>3050</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="39" t="s">
         <v>3051</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="39" t="s">
         <v>3052</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="39" t="s">
         <v>3053</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="39" t="s">
         <v>3054</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="39" t="s">
         <v>3055</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="39" t="s">
         <v>3056</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="39" t="s">
         <v>3057</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="39" t="s">
         <v>3058</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="39" t="s">
         <v>3059</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="39" t="s">
         <v>3060</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="39" t="s">
         <v>3061</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="39" t="s">
         <v>3062</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="39" t="s">
         <v>3063</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" s="62" t="s">
         <v>3064</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" s="39" t="s">
         <v>3065</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" s="39" t="s">
         <v>3066</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" s="39" t="s">
         <v>3067</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" s="39" t="s">
         <v>3068</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="39" t="s">
         <v>3069</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" s="39" t="s">
         <v>3070</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" s="39" t="s">
         <v>3071</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" s="39" t="s">
         <v>3072</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="39" t="s">
         <v>3073</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" s="39" t="s">
         <v>3074</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" s="39" t="s">
         <v>3075</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" s="39" t="s">
         <v>3076</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" s="39" t="s">
         <v>3077</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" s="39" t="s">
         <v>3078</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" s="39" t="s">
         <v>3079</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" s="39" t="s">
         <v>3080</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" s="39" t="s">
         <v>3081</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" s="39" t="s">
         <v>3082</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" s="39" t="s">
         <v>3083</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" s="39" t="s">
         <v>3084</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" s="39" t="s">
         <v>3085</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" s="39" t="s">
         <v>3086</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" s="39" t="s">
         <v>3087</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" s="39" t="s">
         <v>3088</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" s="39" t="s">
         <v>3089</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" s="39" t="s">
         <v>3090</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" s="39" t="s">
         <v>3091</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" s="39" t="s">
         <v>3092</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" s="39" t="s">
         <v>3093</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" s="39" t="s">
         <v>3094</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" s="39" t="s">
         <v>3095</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" s="39" t="s">
         <v>3096</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" s="39" t="s">
         <v>3097</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206" s="39" t="s">
         <v>3098</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" s="39" t="s">
         <v>3099</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" s="39" t="s">
         <v>3100</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" s="39" t="s">
         <v>3101</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" s="39" t="s">
         <v>3102</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" s="39" t="s">
         <v>3103</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" s="39" t="s">
         <v>3104</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" s="39" t="s">
         <v>3105</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" s="39" t="s">
         <v>3106</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" s="39" t="s">
         <v>3107</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" s="39" t="s">
         <v>3108</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217" s="39" t="s">
         <v>3109</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" s="39" t="s">
         <v>3110</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" s="39" t="s">
         <v>3111</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220" s="39" t="s">
         <v>3112</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221" s="39" t="s">
         <v>3113</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222" s="39" t="s">
         <v>3114</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223" s="39" t="s">
         <v>3115</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224" s="39" t="s">
         <v>3116</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="39" t="s">
         <v>3117</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="39" t="s">
         <v>3118</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="39" t="s">
         <v>3119</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="39" t="s">
         <v>3120</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="39" t="s">
         <v>3121</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" s="39" t="s">
         <v>3122</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" s="39" t="s">
         <v>3123</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232" s="39" t="s">
         <v>3124</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233" s="39" t="s">
         <v>3125</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" s="39" t="s">
         <v>3126</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235" s="39" t="s">
         <v>3127</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236" s="39" t="s">
         <v>3128</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237" s="39" t="s">
         <v>3129</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238" s="39" t="s">
         <v>3130</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239" s="39" t="s">
         <v>3131</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240" s="39" t="s">
         <v>3132</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" s="39" t="s">
         <v>3133</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" s="39" t="s">
         <v>3134</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" s="39" t="s">
         <v>3135</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244" s="39" t="s">
         <v>3136</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245" s="39" t="s">
         <v>3137</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246" s="39" t="s">
         <v>3138</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247" s="39" t="s">
         <v>3139</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248" s="62" t="s">
         <v>3140</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249" s="39" t="s">
         <v>3141</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" s="39" t="s">
         <v>3142</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251" s="39" t="s">
         <v>3143</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" s="39" t="s">
         <v>3144</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253" s="39" t="s">
         <v>3145</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254" s="39" t="s">
         <v>3146</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255" s="62" t="s">
         <v>3147</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256" s="39" t="s">
         <v>3148</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" s="39" t="s">
         <v>3149</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" s="39" t="s">
         <v>3150</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" s="39" t="s">
         <v>3151</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" s="39" t="s">
         <v>3152</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" s="39" t="s">
         <v>3153</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" s="39" t="s">
         <v>3154</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" s="39" t="s">
         <v>3155</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264" s="62" t="s">
         <v>3156</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" s="39" t="s">
         <v>3157</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" s="39" t="s">
         <v>3158</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" s="39" t="s">
         <v>3159</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" s="39" t="s">
         <v>3160</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" s="39" t="s">
         <v>3161</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" s="39" t="s">
         <v>3162</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" s="39" t="s">
         <v>3163</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272" s="62" t="s">
         <v>3164</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273" s="39" t="s">
         <v>3165</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274" s="39" t="s">
         <v>3166</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275" s="39" t="s">
         <v>3167</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276" s="39" t="s">
         <v>3168</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277" s="39" t="s">
         <v>3169</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278" s="62" t="s">
         <v>3170</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279" s="39" t="s">
         <v>3171</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280" s="39" t="s">
         <v>3172</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281" s="39" t="s">
         <v>3173</v>
       </c>
@@ -67273,18 +67278,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -67511,14 +67516,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19C6EEEB-5D2E-45E1-8FE7-1AD35DCC0F2B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECB718DA-80FF-421E-B073-1A0999D779C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -67531,6 +67528,14 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="0dd50f32-c66a-4556-b922-086aacd365e3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19C6EEEB-5D2E-45E1-8FE7-1AD35DCC0F2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
